--- a/ambassador/reviewer_sheets_excel/reviewer_1_sheet.xlsx
+++ b/ambassador/reviewer_sheets_excel/reviewer_1_sheet.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
@@ -488,10 +488,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>300</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -505,11 +503,15 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Ghassen has conducted technical workshops on PyTorch internals, covering topics such as autograd, custom Functions, and the torch.utils.data pipeline. He developed a complete reinforcement learning lab using PyTorch and showcased his internship project, which featured tailored training loops and custom modules. Additionally, he has contributed to Hugging Face’s computer vision course and is actively pursuing deeper contributions to the PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+For more info : https://www.facebook.com/machinelearningsupcom</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -999,28 +1001,37 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>292</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>_No</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>response_</t>
+          <t>Guerra</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an Ambassador, I would contribute in several ways. First, by conducting research and encouraging my students to explore solutions to cutting-edge, real-world problems, especially in the field of robotics.
+I actively share knowledge and code through clear, structured educational content. I'm currently working on tutorials and videos that explain key concepts like ROS2 for robotics, Vision Transformers for video classification, and end-to-end pipelines for computer vision. My background in building modular AI systems (e.g., detection, pose estimation, segmentation, tracking).
+As an Ambassador, I would continue contributing by:
+- Creating tutorials and open-source projects for deploying PyTorch models on edge/mobile devices using React Native and PyTorch Mobile/ONNX.
+- Sharing insights on training and fine-tuning advanced models like SAM2 with real-world datasets.
+- Supporting the PyTorch community through mentorship, social media content, and interactive talks or workshops focused on vision, multimodal AI, and robotics.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Here's some links to my social media:
+https://www.tiktok.com/@epic_robotics
+https://www.youtube.com/@epicrobotics7189</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1510,28 +1521,44 @@
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>289</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Orestis</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Makris</t>
+          <t>Arroyo</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am from Bolivia and currently work remotely as an Artificial Research Engineer at Fogsphere, a UK-based company focused on developing AI-powered products. My work centers on the development, inference, and optimization of Large Language Models (LLMs) and Vision-Language models (VLMs), primarily using PyTorch and the Hugging Face Transformers library.
+As part of my contribution to the ambassador program, I plan to lead a series of in-person workshops in cities across Bolivia, with the goal of engaging the local community and introducing them to the professional use of PyTorch. In these workshops, I will demonstrate how PyTorch can be applied to real-world use cases, starting with the construction of convolutional neural networks (CNNs) using the torch.nn module. This approach will help participants understand the fundamentals of model design and implementation, providing a practical foundation to explore more advanced architectures.
+I will also cover the use of torch.cuda, offering a detailed explanation of the differences between CPU and GPU execution and providing hands-on guidance, an essential aspect of modern development environments.
+Another key topic will be the implementation of optimized models using ExecuTorch, which enables local execution across different backends. I aim to demonstrate how to integrate Hugging Face models and run them on various devices without relying on internet connectivity.
+These initiatives are specifically designed for the Bolivian context. Teaching foundational skills in model building and optimization is essential for democratizing access to knowledge and the professional use of PyTorch. On-device hardware optimization also plays a crucial role, especially in rural areas where internet access is limited or unavailable. In such settings, the ability to run AI models locally represents a high value opportunity for developers aiming to create solutions that make a tangible impact in their communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have experience leading tech communities. I am an organizer of the Google Developers Group Sucre, where I have coordinated various events, including:
+- Led BuildWithAI Bolivia 2024, the nation’s largest AI hackathon (200+ participants, 6/9 cities), where teams built AI-powered solutions addressing Bolivia’s key SDG challenges.
+- Awarded Campaign Master by Google for Developers for organizing the “ML Math Clubs” online series, a 3-part workshop on essential machine learning mathematics (+300 participants from Latin America).
+- Empowered 500+ Bolivian developers through 15+ immersive workshops and talks on Google’s cutting-edge AI stack (Gemini, Gemma, MediaPipe, PaliGemma).
+Additionally, I have been a speaker at several international events outside of Bolivia, among which the following stand out:
+- PyCon US, Turning Glasses into Smart Assistants: Open Source Vision-Language Models in Pittsburgh, US - 05/25
+- DevFest Xela, PaliGemma: Fusing Language and Vision for the Future of AI in Quetzaltenango, Guatemala - 10/24
+- DevFest Arequipa, PaliGemma: Fusing Language and Vision for the Future of AI in Arequipa, Peru - 10/ 24
+I also regularly share my experiences from various events I have participated in, such as Google I/O in US, the OpenAI Hackathon in Chile, FIRST Global in Greece, and many others, through my social media channels.
+https://www.linkedin.com/in/alejandronunezarroyo
+https://medium.com/@AleNunezArroyo</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2021,28 +2048,43 @@
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>286</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Aayusha</t>
+          <t>Orestis</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Adhikari</t>
+          <t>Makris</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As the founder and current Chair of the ACM Student Chapter at the University of Patras, I (Orestis) have actively built a thriving student community around computing, AI, and open-source technologies. Last year, I established the Machine Learning Special Interest Group (ML SIG) within our chapter, which now includes 10 active members and continues to grow. We have created a GitHub repository containing curated learning materials to support onboarding, mentorship, and continuous learning for new members.
+As a PyTorch Ambassador, I plan to expand these efforts through the following initiatives:
+Organizing a 3-day PyTorch bootcamp focused on neural networks, hands-on PyTorch  training, and real-world ML applications.
+Hosting internal PyTorch hackathons for SIG members, and broader workshops open  to all students in the Department of Computer Engineering and Informatics, including those from non-CS backgrounds.
+Mentoring first-year students to help them overcome fears  around programming and mathematics by guiding them through beginner-friendly, applied ML projects using PyTorch.
+Collaborating with faculty and local startups in Patras to build a stronger ecosystem for open-source, research-oriented, and industry-aligned ML development using PyTorch.
+With deep connections across the university’s  student and faculty communities, I am well-positioned to promote PyTorch and inspire a new generation of machine learning practitioners at the University of Patras and beyond.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My coding journey began at 12 with basic scripting. At 17, I competed in the Greek Mindstorms Robotics Competition with my school, which sparked my love for programming and problem-solving. Around the same time, I became fascinated by quantum physics, which led me to explore quantum computing — and thus, Python.
+After passing the Greek national entrance exams, I enrolled in the Department of Computer Engineering and Informatics at the University of Patras, the first Computer Engineering program established in Greece. I'm currently in the final year of its five-year integrated Master's program.
+Early on, I joined IEEE Student Branch (Department ECE) activities and eventually founded the IEEE Quantum Computing Group in my second year. In my third year, I served on the IEEE Executive Committee as Public Relations Officer. Noticing a gap in AI-related student initiatives in my department, I founded the ACM Student Chapter of the University of Patras — with the help of our department head and faculty — and later launched its AI Special Interest Group.
+I rank among the top 3 students in my cohort and am currently working on my Master's thesis, developing a novel ranking model based on ColBERT, which adapts BERT-style transformers for efficient information retrieval. My journey reflects a deep passion for building, learning, and teaching, and I am fully committed to contributing to the PyTorch community by sharing knowledge, mentoring, and organizing impactful initiatives.
+Links:
+Linkedin: https://www.linkedin.com/in/orestis-makris-250353208/
+ACM SB Upatras: https://www.ceid.upatras.gr/ekpaideysi/proptychiako/epistimonikes-foititikes-omades/
+ACM SB Upatras SIG AI Rep (under construction):  https://github.com/OrestisMakris/ACM-Upatras-SIG-ML</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -2532,28 +2574,30 @@
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>282</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Phuriwat</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Angkoondittaphong</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Organize workshops and events and engage the pytorch community within university student clubs across Tunisia
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -3043,28 +3087,51 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>277</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Parichay</t>
+          <t>Akash</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>Agrawal</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Greetings! 
+Brief Bio: I have been contributing to PyTorch Ecosystem for over the past one year as part of the OSS-AI Frameworks Team at Fujitsu Research of India. Being a young-early career software engineer at an established MNC, I also hold a master's degree in Robotics from the prestigious Indian Institute of Science, Bangalore (https://www.iisc.ac.in/).     
+Ways I plan to contribute: As I have been involved with PyTorch as a contributor for the past one year and also as a user as a student during my masters' days for my thesis projects and Hackathons, this program naturally drew my attention. As a PyTorch Ambassador I plan to:
+1. Help Host workshops and office-hours (virtual and in-person) focused on advanced performance topics (vector extensions, sparsity, quantization).
+2. Organize PyTorch meetups in Bangalore (and expand to other Tier-2 cities), inviting local researchers and engineers to demo their projects.
+3. Mentor students and early-career engineers through structured 1:1 sessions —helping them get started with open-source contributions, write clean code, and navigate PR reviews.
+4. Develop bite-sized tutorial series (blog posts and short screencasts) on torchao, tying them back to real-world use cases (BERT, LLaMA).
+5. Actively review and triage issues/PRs on the pytorch/torchao repository, particularly around quantization, sparsity, and performance optimizations—leveraging my existing knowledge and PRs as a springboard.
+6. Represent Work on PyTorch at conferences and hackathons, submitting talks (e.g., “Advancing PyTorch Performance with Scalable Vector Extensions on Arm CPUs” — under evaluation for PT Conf ’25) and volunteering as a track chair or mentor for student competitions/PyTorch workshops.
+Code Contributions: Links of existing/ongoing PRs/issues/discussions on pytorch/torchao:
+1. Fixes observer attachment to model based on config for wanda sparsifier #1265
+(https://github.com/pytorch/ao/pull/1265)
+2. Enabling ATen Distribution kernels for AARCH64 using OpenRNG #134942 (https://github.com/pytorch/pytorch/pull/134942)
+3. Issue Raised: [Sparsity] When sparsifying using Wanda on only Linear layers, PerChannelNormObserver() being added to embedding layers, leading to RuntimeError: linalg.vector_norm: Expected a floating point or complex tensor as input. Got Long #1133 (https://github.com/pytorch/ao/issues/1133)
+4. Issues tagged/involved in: Implement MKLGenerator #151218 (https://github.com/pytorch/pytorch/pull/151218)
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+There are several avenues where I have contributed/represented PyTorch or the AI community in general. Some of these include:
+Speaking at Conferences: Submission as a speaker for session to the PyTorch Conference 2025: Advancing PyTorch Performance with Scalable Vector Extensions on Arm CPUs. (under evaluation) 
+Mentorship/Leadership: Chosen to serve as a Mentor for an Enterprise Level AI/ML Hackathon by Intel, Linkedin post:
+https://www.linkedin.com/posts/akash-agrawal-059307143_intel-intel-oneapi-activity-7142385413830156288-7AcI?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACLAQ4UBeQd0XQ2jc4tU1fVEWRuEqsH1hSo
+Recognition: Featured blog for Project developed on PyTorch codebase on intel community website: 
+https://community.intel.com/t5/Blogs/Tech-Innovation/Artificial-Intelligence-AI/Building-an-Object-Detection-Model-for-Autonomous-Vehicles-using/post/1514410
+Blogs/Writing Skills: Medium Article published for a PyTorch based project built for a Hackathon: 
+https://medium.com/@akaagr10/towards-autonomy-building-a-robust-object-detection-and-segmentation-model-for-autonomous-vehicles-ddc86b1568a</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -3554,28 +3621,54 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>274</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Kir</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Moya-Sánchez</t>
+          <t>Zharov</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As the co-organiser of London’s only PyTorch-focused user group (1,500+ members, 200+ YouTube subscribers), I already serve a large, engaged audience. Ambassador status would allow me to amplify that impact while aligning my plans with the programme’s three pillars:
+1. Local Community Leadership
+Support from the PyTorch team would formalise our meetup as an official part of the PyTorch ecosystem, helping us attract more speakers and grow the community.
+2. Learning &amp; Development
+I will continue to grow as an ML/MLOps Engineer and help others do the same—through meetups and hands-on workshops.
+3. Knowledge Sharing
+We are scaling everything we learn beyond the room by recording and publishing every talk on our YouTube channel (goal: reach 500-1k subscribers within 12 months).
+I'm planning to start contributing to PyTorch and giving talks to share GenAI and PyTorch experience.
+By systematically expanding events, codifying new knowledge, and shipping open-source examples, our meetup group aims not only to meet but to exceed all Ambassador responsibilities, providing an inclusive, high-impact gateway to PyTorch for developers across the UK and beyond.
+Thank you for organising this programme!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi PyTorch Ambassadors Team,
+My name is Kir Zharov, I'm living in London, UK and over the last a couple of years I co-organised and hosted many PyTorch meetups in London together with Fedor Shabashev. 
+- We are the only PyTorch meetup group in London (to the best of my knowledge).
+- We have 1,500+ members on Meetup.com.
+- Our events regularly attract 150+ attendees, including ML engineers, research engineers, and startup founders.
+- We’ve had speakers from the core PyTorch team, including Vincent Moens, Mario Lezcano Casado, and Nicolas Hug.
+- We consistently receive positive feedback from our attendees (meetup feedback is 4.5 stars on average on meetup.com)
+- You can learn more about us here:
+    https://www.meetup.com/london-pytorch-meetup/
+- We also upload our talks to our YouTube channel:
+    https://www.youtube.com/@londonpytorchmeetup
+We have 200 subscribes in our YouTube channel.
+Example talks:
+- Vincent Moens, Integrating RLHF in TorchRL (https://youtu.be/MyaGLR7PM20)
+- Mario Lezcano Casado, The torch.compile Stack and How to Introspect It (https://youtu.be/Z3dL2D2BEHE)
+- Nicolas Hug, TorchVision Transforms V2 (https://youtu.be/_CdgR35yu9s)</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -4065,28 +4158,31 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>271</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Ojodunwene</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+He’s a dedicated AI researcher passionate about community growth. With experience mentoring junior developers and organizing AI conferences, he envisions creating a structured PyTorch mentorship program and hosting engaging events to connect academia and industry. His goal: build an inclusive, innovative PyTorch ecosystem where all developers can thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+LinkedIn: https://www.linkedin.com/in/kevin-wang-9b1650226/
+Github: https://github.com/aiejvn</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -4576,27 +4672,28 @@
       <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>265</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>BYAOMBE</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Sosoo</t>
+          <t>Dieudonne</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
+nan
+        Ambassador Pitch:
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
 </t>
         </is>
       </c>
@@ -5087,28 +5184,42 @@
       <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>259</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>Dowling</t>
+          <t>Sosoo</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Why I Want to Become a PyTorch Ambassador
+As a Distinguished Arm Ambassador and Micro:bit Champion, I'm excited to leverage my experience in community building, knowledge sharing, and event organization to promote PyTorch and empower others in the AI and Machine Learning community.
+Empowering Others
+I believe that everyone should have access to the resources and knowledge needed to succeed in AI and Machine Learning. As a PyTorch Ambassador, I plan to educate others about PyTorch, encourage them to develop creative solutions, and provide guidance and support through mentorship programs.
+Community Building
+I'm passionate about fostering a vibrant community around PyTorch. I plan to connect with PyTorch experts and enthusiasts, exchange ideas, and collaborate on projects that showcase the power and versatility of PyTorch.
+What I Bring
+1. Diversity and Inclusion: As an advocate for diversity in technology, I can contribute to PyTorch's efforts to expand access to AI and Machine Learning tools, particularly for underrepresented groups.
+2. Experience: I have experience in creating content, organizing events, and mentoring others, which I can leverage to promote PyTorch and support its community.
+3. Network: I have a strong network of connections in the AI and Machine Learning community, which I can tap into to promote PyTorch and collaborate with others.
+My Experience with Arm and Micro:bit
+As a Distinguished Arm Ambassador, I've coordinated with Arm Developer Program events, and shared resources and knowledge with the community. As a Micro:bit Champion, I've mentored K-12 students in building projects using Micro:bits, promoting STEM education and digital skills.
+I'm excited about the opportunity to serve as a PyTorch Ambassador and contribute to the growth and success of the PyTorch community. Thank you for considering my application!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/derrickedemsosoo</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -5598,28 +5709,34 @@
       <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>254</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Zaynul</t>
+          <t>Braulio</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Miah</t>
+          <t>Otavalo</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As the lead of the AI Skills Accelerator at Awana, I train software developers and engineers across Latin America in machine learning, focusing strongly on deep learning and computer vision using PyTorch. I regularly teach topics like transfer learning with foundation models, geospatial AI using TorchGeo, and the development of custom deep learning models for real-world challenges.
+My goal as a PyTorch Ambassador is to make deep learning more accessible and impactful in Latin America, especially in underrepresented communities. To support inclusive AI education, I plan to host workshops, share open-source projects, and create learning paths that span from beginner to advanced levels in Spanish.
+As one of the first Indigenous professionals in AI in Ecuador, I’m especially committed to mentoring Indigenous STEAM students and creating spaces for them to explore AI through PyTorch. I believe PyTorch is more than a tool—it’s a gateway to innovation and opportunity. I want to help others unlock that potential through community building, mentoring, and practical training.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I bring over a decade of hands-on experience in machine learning and a strong academic background in AI and computer vision. As AI Tech Lead at Awana, I mentor a team that delivers ML solutions for U.S.-based clients while also leading the AI Skills Accelerator, a program I designed to empower Latin American developers with practical, end-to-end ML training.
+I have strong expertise in PyTorch for deep learning, computer vision, and geospatial AI. At Awana, I lead and teach modules on Deep Learning, Foundation Models, and Generative AI, all built using PyTorch as the core framework. I’ve worked on real-world projects that apply PyTorch to tasks such as satellite imagery analysis using TorchGeo, transfer learning, and model optimization for production.
+My teaching efforts through the AI Skills Accelerator have helped  Latin American developers gain practical experience with PyTorch. I’m deeply passionate about making advanced AI education accessible, especially for underrepresented groups, and PyTorch plays a central role in that mission.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -6109,28 +6226,51 @@
       <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>249</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Ankita</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Guha</t>
+          <t>vonThenen</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively engage the community by organizing both virtual and in-person events, focusing on practical applications and project-driven learning. I've already led numerous open-source projects built with PyTorch, notably models detecting Parkinson's disease through gait analysis and voice recognition (among many many others). Sharing these projects at conferences like Open Data Science Conference, AI_Dev, etc showcases PyTorch's versatility and inspires others to tackle real-world challenges.
+Mentoring plays a key role too... I regularly guide developers in mastering PyTorch by breaking down complex topics into clear, hands-on tutorials and blog posts. My goal is to continue creating content that simplifies machine learning, making PyTorch accessible for everyone, from beginners to advanced practitioners.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+All prior presentations can be found here:
+https://davidvonthenen.com/talks/
+20+ Sessions that were recorded can be found here:
+https://www.youtube.com/watch?v=zYFYqXh1UGg&amp;list=PLbt-vfK614XogHSmJ0CNmUXtaUKYM247t
+Notable sessions:
+Real Time Communications Conference &amp; Expo 2024
+KEYNOTE: Training Machine Learning Classification Models for Creating Real-Time Data Points of Medical Conditions
+Video: https://youtu.be/YgeinCCUBCk
+October 2024
+NVIDIA GTC 2025
+Crack the AI Black Box: Practical Techniques for Explainable AI
+Video: https://youtu.be/umurTAD4x2Y
+March 2025 San Jose, California, United States
+Souther California Linux Expo x22 (2025)
+Demystifying Building NLP ML Models and How to Leverage Them By Example
+Video: https://youtu.be/hAvCtpKnkLI
+March 2025, Pasadena, California, United States
+Developer Week 2025
+KEYNOTE: The Sound of Innovation: Why Voice Cloning Will Redefine Human-Computer Interaction
+Video: https://youtu.be/WkQnqkHrzEQ
+February 2025 Santa Clara, California, United States</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr"/>
@@ -6620,28 +6760,33 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Nura</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>Sufiyanu</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+My name is Lucas Braz and I’m the nominee. As a content creator and founder of Legacy GG, a Latin American community of gamers and Web3 builders, I see the PyTorch Ambassador Program as a great opportunity to bring more visibility and education around AI to our region.
+I plan to contribute mainly through written content and tutorial videos that help onboard new users into the PyTorch ecosystem, especially those coming from Web3 and creator backgrounds. I create educational threads, onboarding guides, and short videos aimed at simplifying complex ideas for beginners.
+I also intend to organize online events and learning sessions with LATAM communities where I already have strong connections thanks to my leadership at Legacy GG. These would be opportunities to introduce PyTorch resources, share updates, and connect people interested in building with AI.
+My goal is to help more people in Latin America understand and explore PyTorch—through clear, localized content and community-driven engagement.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
@@ -7131,28 +7276,35 @@
       <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>243</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Ismail</t>
+          <t>Nura</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>Feranmi</t>
+          <t>Sufiyanu</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch ambassador, i will contribute by empowering the developer and research community through education, engagement, and advocacy:
+1. Educational Content Creation: Develop high-quality tutorials, notebooks, and blog posts that make PyTorch accessible to both beginners and experienced users, especially in areas like deep learning, computer vision, and NLP.
+2. Community Engagement: Actively participate in forums, GitHub discussions, and social platforms to answer questions, provide guidance, and support learners and developers using PyTorch.
+3. Workshops &amp; Talks: Organize and speak at local meetups, online webinars, and conferences to introduce PyTorch tools, best practices, and new features to diverse audiences.
+4. Open Source Contributions: Contribute to PyTorch’s ecosystem by reporting issues, submitting PRs, or building libraries, tools, or examples that enhance the community’s productivity.
+5. Advocacy &amp; Feedback Loop: Serve as a bridge between PyTorch users and the core team—gathering feedback, sharing insights from real-world use, and helping shape the direction of the framework.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr"/>
@@ -7642,28 +7794,30 @@
       <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>235</v>
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>Ediomo</t>
+          <t>Ismail</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>Udoekere</t>
+          <t>Feranmi</t>
         </is>
       </c>
       <c r="D380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will engage with the pyTorch community by hosting a bootcamp and conferences to talk about AI/ML using pyTorch so that people can learn and gain
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr"/>
@@ -8153,10 +8307,8 @@
       <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>231</v>
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
@@ -8170,11 +8322,15 @@
       </c>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee is a potential content creator and Web developer
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr"/>
@@ -8664,28 +8820,36 @@
       <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
+      <c r="A434" s="2" t="n">
+        <v>230</v>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Ying-Jung</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>Chen</t>
+          <t>Winner</t>
         </is>
       </c>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I'd contribute by actively engaging with the PyTorch community through:
+1. Knowledge-sharing: Sharing expertise via blog posts, tutorials, and workshops.
+2. Community support: Helping newcomers, answering questions, and providing guidance.
+3. Event hosting: Organizing meetups, webinars, and conferences to foster collaboration.
+4. Mentoring: Guiding individuals in PyTorch projects and research.
+5. Feedback loop: Collecting community feedback to improve PyTorch and advocate for user needs.
+My goal would be to build a stronger, more inclusive community, drive adoption, and contribute to PyTorch's growth and innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
@@ -9175,28 +9339,30 @@
       <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
+      <c r="A461" s="2" t="n">
+        <v>227</v>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>Pacifique</t>
+          <t>Ahsan</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t>Mugisho</t>
+          <t>Umar</t>
         </is>
       </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -9686,28 +9852,30 @@
       <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>223</v>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Hrudu</t>
+          <t>Alireza</t>
         </is>
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t>Shibu</t>
+          <t>Hosseini</t>
         </is>
       </c>
       <c r="D488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr"/>
@@ -10197,28 +10365,30 @@
       <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
+      <c r="A515" s="2" t="n">
+        <v>220</v>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>Varala</t>
+          <t>Hrudu</t>
         </is>
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>Swapnik</t>
+          <t>Shibu</t>
         </is>
       </c>
       <c r="D515" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I, Hrudu Shibu, am nominating myself for the PyTorch Ambassador Program. I am over 18 years of age and fully agree to abide by the PyTorch Code of Conduct and the Linux Foundation Antitrust Policy. As a System Administrator at Axcess.io and an AgentForce Innovator, I work extensively with cloud infrastructure, DevOps tools, and AI integrations. I have earned multiple certifications, including 4x Oracle credentials, and I'm actively exploring AI through hands-on experimentation and certifications like Postman API Fundamentals and AWS Educate. Alongside my technical role, I contribute to the community by publishing newsletters like Jira &amp; Beyond, The Cloud Compass, and Queuil, which help disseminate knowledge across tools and trends in cloud, automation, and AI. I actively support AI and PyTorch communities via discussions, mentorship, and tech writing. My educational path through the University of Mysore (BCA) and a diploma in Cloud Computing further complements my experience. If selected as a PyTorch Ambassador, I aim to bridge the gap between system operations and AI by producing beginner-friendly and cloud-integrated PyTorch tutorials, hosting live sessions on deploying PyTorch apps at scale, and mentoring young engineers transitioning from IT infrastructure roles into AI development. My GitHub handle is @hrudushibu, and more about my work and content can be found at https://topmate.io/hrudushibu..
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In addition to my professional and community work, I actively publish educational content through newsletters such as The Cloud Compass (focused on AWS and cloud best practices) and Queuil (covering emerging tech and AI news). My Topmate profile (https://topmate.io/hrudushibu) showcases my mentorship offerings and past tech sessions. I also maintain a growing GitHub presence where I share automation scripts, cloud templates, and plan to expand into PyTorch-based AI deployment projects bridging infrastructure with AI workflows. I’m passionate about helping early-career professionals transition into AI roles from traditional IT backgrounds, and I plan to open-source beginner-friendly labs and guides that combine PyTorch with cloud-native tools like AWS, GitHub Actions, and Docker.</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr"/>
@@ -10708,10 +10878,8 @@
       <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
+      <c r="A542" s="2" t="n">
+        <v>212</v>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
@@ -10725,11 +10893,15 @@
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+as a nominee, i would engage with the pytorch community by creating clear, engaging content that makes complex topics approachable, sharing updates, and starting meaningful discussions online. i’d help the initiative thrive by organizing virtual events, knowledge-sharing sessions, or workshops to support both newcomers and experienced users. i’d also actively mentor and guide community members, fostering a positive and inclusive space where learning and collaboration can grow.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+i’m passionate about community building, simplifying complex topics, and helping people feel connected and informed. with experience across web3 and content creation, i bring consistency, creativity, and genuine enthusiasm — always ready to support projects i believe in and help them grow strong, engaged communities.</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
@@ -11219,28 +11391,35 @@
       <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
+      <c r="A569" s="2" t="n">
+        <v>209</v>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>Koki</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>Mitsunami</t>
+          <t>Rotich</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am an AI/ML engineer dedicated to expanding access to digital skills to more people. I work particularly with the youth from underrepresented communities (through an organization known as LivingForOthers-livingforothers.or.ke) in parts of Nairobi, Kenya and Rural Kenya. These are places where opportunities to engage with cutting-edge technologies like machine learning are often limited albeit there are some wonderful talent that just need honing and mentoring. 
+Getting an opportunity to be a PyTorch Ambassador will be an opportunity for me to leverage my experience and network to create sustainable, inclusive programming that not only spreads PyTorch knowledge but helps youth from underserved backgrounds envision and build their futures in technology.
+I would particularity be interested in helping organize some Intro-to-PyTorch bootcamps focused on practical ML applications, tailored to youth in these areas.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I also serve as a member of the Outreach Committee for the Internet Society (Kenya Chapter). Through this role, I have been deeply involved in developing and executing strategies to engage underserved populations, advocate for digital equity, and support community-led initiatives focused on access and capacity building.
+I have also been selected for and participated in several AI-focused programs like the AI2Amplify Fellowship organized by Goethe Institute in Germany. My project was selected as one of the best in the fellowship!
+You can learn more about the project in this particular fellowship here:
+https://www.goethe.de/prj/aia/en/wt/dig.html</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr"/>
@@ -11730,28 +11909,38 @@
       <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>208</v>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Ed</t>
         </is>
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Amanfo</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Creating technical content and presentations primarily showing how to develop and deploy PyTorch models for Edge AI use cases. This include:
+- developing, fine-tuning and testing models on cloud platforms like AWS EC2/SageMaker/Bedrock
+- optimizing models for various edge devices (e. g. Raspberry Pi, Jetson, Orion O6) using ExecuTorch
+- deploying models through IoT platforms like AWS IoT and Amazon Greengrass.
+Some content will be through the lens of AI for Wildlife as part of the BearID Project
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Content share on various platforms.
+General content on LinkedIn: https://www.linkedin.com/in/bluevalhalla/
+Also n Medium: https://medium.com/@bluevalhalla
+AWS ML Hero content on DEV: https://dev.to/bluevalhalla
+AI for Wildlife content on BearID Project blog: https://bearresearch.org/blog/</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr"/>
@@ -12241,28 +12430,56 @@
       <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="A623" s="2" t="n">
+        <v>205</v>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
-          <t>Sumantro</t>
+          <t>Koki</t>
         </is>
       </c>
       <c r="C623" s="2" t="inlineStr">
         <is>
-          <t>Mukherjee</t>
+          <t>Mitsunami</t>
         </is>
       </c>
       <c r="D623" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would bring a unique ability to bridge the gap between cutting-edge deep learning research and practical deployment for production, particularly in resource-constrained environments like mobile and embedded systems. With a strong track record of making advanced ML concepts accessible, I have consistently empowered developers to bring models from experimentation to real-world applications.
+I have authored in-depth technical blogs on topics such as optimizing inference on Arm architectures, efficient deployment strategies for mobile platforms, and using ML-Agents for mobile gaming. Through online tutorials, I’ve also guided developers in deploying AI models to mobile, demonstrating their ability to translate ecosystem-agnostic deployment challenges into actionable workflows for the broader ML community.
+As a PyTorch Ambassador, I plan to:
+- Lead community education by creating content and tutorials that explain advanced workflows like post-training quantization, QAT, and PyTorch-to-ExecuTorch conversion.
+- Mentor developers and researchers, especially those working on mobile AI, edge computing, and gaming applications, through office hours, code reviews, and Discord or forum engagement.
+- Collaborate across the ecosystem, surfacing feedback to the PyTorch team and helping shape tools that improve deployment interoperability, performance, and ease of use.
+- Deliver talks that provide hands-on guidance for getting PyTorch models ready for production on diverse hardware.
+My cross-framework experience and community-minded approach make me an ideal ambassador to help PyTorch thrive across research, development, and deployment domains, especially where performance and portability are key.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have been deeply engaged in educating and supporting the ML and developer community through blogs, public talks, and tutorials — especially in the areas of model deployment, hardware acceleration, and cross-framework integration for mobile and edge applications.
+[Blogs &amp; Tutorials]
+- Blog on PyTorch app with Android NNAPI – In this blog, I walk through how to enable and utilize Android NNAPI with PyTorch to accelerate inference on mobile devices, covering integration tips and performance benchmarks.
+https://community.arm.com/arm-community-blogs/b/ai-blog/posts/improve-pytorch-app-performance-with-android-nnapi-support-386430784
+- Blog series on ML-Agents with Unity for Mobile Gaming – I’ve written blog posts exploring reinforcement learning and inference optimization for mobile game environments using Unity ML-Agents.
+https://community.arm.com/arm-community-blogs/b/mobile-graphics-and-gaming-blog/posts/1-unity-ml-agents-arm-game-ai
+https://community.arm.com/arm-community-blogs/b/ai-blog/posts/p1-multi-agent-reinforcement-learning
+- Blog on Arm CPU architectures – I’ve authored technical content to explain Arm's new SIMD architecture for enabling increased AI capabilities.
+https://community.arm.com/arm-community-blogs/b/architectures-and-processors-blog/posts/sve2
+- Tutorials on a Android chatbot application – I’ve created online tutorials that walk through converting and deploying ONNX models to mobile, helping bridge the gap from PyTorch training pipelines to production-ready mobile apps.
+https://learn.arm.com/learning-paths/mobile-graphics-and-gaming/build-android-chat-app-using-onnxruntime/
+[Conference Talks]
+- Optimizing Stable Diffusion for Mobile – I presented techniques for compressing and accelerating Stable Diffusion models for mobile inference, including quantization strategies at GDC (Game Developers Conference).
+https://www.youtube.com/watch?v=1vnKPLFxs0g&amp;list=PLKjl7IFAwc4SSrROtKwHtcidGv7F6Wwi-&amp;index=9
+- Talks at CEDEC (Japan), AI and Games Summer School (UK), and GDC (US) – I’ve given multiple talks on using ML-Agents for game development and deploying reinforcement learning models in interactive, real-time environments.
+https://school.gameaibook.org/2023-school/
+- Talk on Arm64EC, a new way of building apps for Windows on ARM – delivered a technical talk focused on modern compile workflows for Windows on ARM, which has direct relevance for deploying PyTorch models on ARM64 Windows devices.
+https://developer.arm.com/Additional%20Resources/Video%20Tutorials/DevHub/Arm64EC%20-%20ABI%20for%20Mixing%20x64%20and%20Arm64
+https://developer.arm.com/Additional%20Resources/Video%20Tutorials/DevHub/ARM64EC%20-%20A%20new%20way%20of%20building%20apps%20for%20Windows%2011%20on%20Arm
+These efforts reflect my commitment to open knowledge-sharing, practical tooling, and supporting developers as they bring PyTorch models from research to production—especially in constrained or emerging platforms like mobile and embedded systems.</t>
         </is>
       </c>
       <c r="E623" s="2" t="inlineStr"/>
@@ -12752,28 +12969,35 @@
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
+      <c r="A650" s="2" t="n">
+        <v>191</v>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>Uzair</t>
         </is>
       </c>
       <c r="C650" s="2" t="inlineStr">
         <is>
-          <t>Kapoor</t>
+          <t>Shaikh</t>
         </is>
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a dedicated supporter of open-source technologies and artificial intelligence, my objective is to enhance the PyTorch community by fostering an inclusive and collaborative atmosphere for learners, researchers, and developers—particularly in underrepresented areas.
+I intend to organize regular hands-on workshops, webinars, and coding sessions that emphasize practical applications of PyTorch, covering a spectrum from beginner-friendly tutorials on tensors and autograd to more advanced subjects such as deep learning for computer vision, natural language processing, and model deployment. These events will be aimed at students, professionals, and hobbyists to promote widespread participation.
+In addition to these events, I will take an active role in mentoring aspiring machine learning enthusiasts by establishing a local PyTorch study group, promoting peer-to-peer learning, and providing guidance through online platforms and local educational institutions. Furthermore, I plan to release open-source projects, reproducible research notebooks, and blog articles that clarify intricate PyTorch concepts for the broader community.
+In my capacity as an ambassador, I will enhance PyTorch’s visibility in my region, motivate contributions to the ecosystem, and uphold the principles of knowledge-sharing, inclusivity, and innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a final-year Software Engineering student with a growing focus on machine learning and data science, I have consistently worked on applying PyTorch in real-world projects and educational initiatives. I actively share knowledge through my GitHub repositories, including implementations of neural networks, computer vision pipelines, and data analysis projects. My GitHub: https://github.com/UzairHussain193
+In addition, I’ve contributed to community learning through tech talks, collaborative bootcamps, and peer mentoring sessions—recently co-hosting a GitHub BootCamp to help students improve their open-source contributions. I also maintain a blog where I share practical guides and insights into machine learning and AI for beginners and intermediate learners.
+I am deeply committed to democratizing access to ML knowledge, especially in underserved regions, and I believe the PyTorch Ambassador Program will amplify my ability to support learners, promote responsible AI development, and grow a vibrant local PyTorch community.</t>
         </is>
       </c>
       <c r="E650" s="2" t="inlineStr"/>
@@ -13263,28 +13487,35 @@
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
+      <c r="A677" s="2" t="n">
+        <v>180</v>
       </c>
       <c r="B677" s="2" t="inlineStr">
         <is>
-          <t>Bingqing</t>
+          <t>Zhiqing</t>
         </is>
       </c>
       <c r="C677" s="2" t="inlineStr">
         <is>
-          <t>Guo</t>
+          <t>Xiao</t>
         </is>
       </c>
       <c r="D677" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee will work closely with PyTorch foundation and leverage his existing experiences and resources to achieve the foundation’s priorities.
+The nominee is one of the earliest third-party PyTorch-related content providers, and generated and circulated many PyTorch-related news and tutorials, which made substantial impacts among AI developers in East Asia.
+1. The nominee founded the WeChat subscription account "pytorcher" in 2018, which is the second-largest WeChat subscription account that focuses on PyTorch. It currently has ~9k subscribers. Example post: https://mp.weixin.qq.com/s/_znyJ6kML-6QZDQeEvFN6w, which got ~2.6k complete views since its publishing in 2025.
+2. The nominee is the sole administrator and maintainer of many QQ groups (WeChat and QQ are the two most populous social media in East Asia), including groups that focusing on PyTorch (698847007, 657340455, 415053557) and groups that focusing on AI (935702193, 243613392, 948110103, etc.), covering ~2k AI developers in total. Amongst, the group 698847007 was the QQ group that collected the largest total amount of group entrance fee among groups that focus on PyTorch learning, before QQ removed the feature that allowed group owners to set a fee for entering a group.
+3. The nominee is the sole contributor of many PyTorch-related tutorial books and related GitHub repos, including (1) the GitHub repo https://github.com/ZhiqingXiao/pytorch-book and related book “Application of Neural Network and PyTorch”, which is the first hard-copy tutorial book on PyTorch 1; and (2) the GitHub repo https://github.com/ZhiqingXiao/rl-book and the related book, which provides the implementation of many mainstream RL algorithm based on PyTorch, and was one of the best-selling RL tutorial books in East Asia.
+4. The nominee maintains close relationship with many media and publishers, and has many successful experiences to work with them to circulate technical tutorials and news. The medium post https://medium.com/pytorch/e1381bdce0a5, written by the nominee, was the first medium post that introduced the usage of PyTorch in Chinese mainland. The nominee also provided virtual courses (example in SpringerNature Link: https://link.springer.com/video/10.1007/978-981-99-3740-0) and presentations (example in Tencent Cloud University: https://cloud.tencent.com/edu/learning/live-2060) in online learning platforms. An interview of the nominee by CSDN, one of the largest developer networks in East Asia, was viewed for 20k+ times (link: https://mp.weixin.qq.com/s/9VipbHM6JPS4uECvvOhjBQ).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E677" s="2" t="inlineStr"/>
@@ -13774,28 +14005,47 @@
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
+      <c r="A704" s="2" t="n">
+        <v>178</v>
       </c>
       <c r="B704" s="2" t="inlineStr">
         <is>
-          <t>Gaurav</t>
+          <t>Efe</t>
         </is>
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Sarkar</t>
+          <t>Güler</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to expand PyTorch adoption, education, and innovation across Turkish universities and developer communities. My contributions will focus on scalable education, mentorship, and open-source collaboration. Specifically, I will:
+    I currently serve as the President of Google Developer Groups on Campus at METU, the most active AI student community in Turkey’s leading technical university. In the Fall 2025 semester, I will organize a comprehensive AI/ML training series targeted at students interested in machine learning. Last year, this program attracted over 250 participants, with 122 successfully completing the course and receiving certification. Among them, 30 students were selected to join applied AI project teams. This year’s training will go beyond fundamentals and mathematical intuition by also integrating practical implementation through PyTorch. This will cultivate a new generation of highly capable students trained in PyTorch and deep learning. The Ambassador title will help increase the visibility and credibility of this training initiative.
+1 - As in the previous year (materials from last year: https://github.com/GDG-on-Campus-METU/ai-ml-materials), all educational content will be released as open-source, allowing other institutions and individual learners to benefit freely. This will promote wider access to high-quality AI education and directly support the growth of the PyTorch community.
+2 - Students trained through GDG METU benefit from hands-on mentorship that supports both their learning journey and their project development. As a PyTorch Ambassador, I—alongside the AI/ML coordinators within our community—will continue offering one-on-one mentorship throughout the year, helping nurture a new generation of technically proficient PyTorch users and AI developers.
+3 - I will collaborate with GDG communities in other universities to organize joint events, and I will be able to represent the PyTorch community as a speaker or workshop host at these campuses. This will expand PyTorch’s presence in the national student ecosystem.
+4 - PyTorch is the primary framework used in most of our community's AI/ML projects, and we will continue to build on it. This ensures that students graduate with hands-on experience in PyTorch and reinforces the framework’s ecosystem within Turkey’s academic and student research environments.
+Ultimately, my motivation for becoming a PyTorch Ambassador is to strengthen the recognition of a tool we already actively use, while building a sustainable pipeline that spans from education to applied research—all centered around PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I bring strong academic depth and practical experience to the ambassador role. As an undergraduate researcher at ROMER, the Center for Robotics and AI at METU, I am actively working on two PyTorch-based research directions:
+1 - Transformation-invariant point cloud representation learning using PyTorch3D, focusing on building robust 3D encoders for robotic perception.
+2 - Similarity learning across heterogeneous data types using CorrNet, with an emphasis on modeling incompleteness and incorrectness in multi-modal representations.
+Beyond research, I lead several PyTorch-based applied AI projects through GDG METU:
+1 - Alaz: A full-stack autonomous driving platform using object detection, semantic segmentation, and classical planning. (ongoing, no repo available publicly yet, but it will)
+2 - Hector-Metubot: A campus-wide retrieval-augmented generation (RAG) chatbot built with PyTorch-based NLP models. (https://github.com/gdgc-metu-aiml/metubot)
+3 - Baksi: A CNN-powered medical imaging AI system designed to detect early indicators of stroke from brain scans. (https://github.com/efekaanguler/baksi)
+4 - ANZU: An autonomous UAV platform leveraging PyTorch for onboard computer vision and navigation tasks. (github.com/HUmutI/ANZU)
+All educational and project materials—including lecture slides, coding notebooks, and documentation—are published in English, open-source, and designed to be modular and reusable. This ensures their value beyond our university and supports collaboration across communities.
+I am also actively mentoring a new generation of PyTorch users within my community. Many of our past trainees are now leading their own sub-projects and mentoring others in return, creating a self-sustaining talent pipeline.
+GitHub: https://github.com/efekaanguler
+LinkedIn: https://www.linkedin.com/in/efekaanguler/</t>
         </is>
       </c>
       <c r="E704" s="2" t="inlineStr"/>
@@ -14285,24 +14535,34 @@
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
+      <c r="A731" s="2" t="n">
+        <v>176</v>
       </c>
       <c r="B731" s="2" t="inlineStr">
         <is>
-          <t>尹珉</t>
-        </is>
-      </c>
-      <c r="C731" s="2" t="inlineStr"/>
+          <t>Trần</t>
+        </is>
+      </c>
+      <c r="C731" s="2" t="inlineStr">
+        <is>
+          <t>Cường</t>
+        </is>
+      </c>
       <c r="D731" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I aspire to be an active PyTorch Ambassador and a strong bridge in the community. If selected, I will focus on the following practical contributions:
+Creating educational content: I will compile high-quality tutorials, blog posts and videos, especially prioritize documents in Vietnamese to help beginners approach PyTorch more easily. I will share the source code on GitHub for everyone to learn and apply.
+Participating and supporting the community: I will actively answer questions on the PyTorch forum, Stack Overflow and local tech groups, helping to clarify questions and promote discussions.
+Sharing practical experience: I will present PyTorch application projects that I have done or am doing (for example in the field of computer vision, segmentation...), illustrating the powerful capabilities of this framework through specific case studies.
+Organizing small events: If possible, I am willing to organize workshops or online/offline meetups to connect the PyTorch community, exchange knowledge and experience. My goal is to help PyTorch become more popular and accessible, build a strong community, support each other and grow together. I believe that with my enthusiasm and knowledge, I can contribute effectively to this mission.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Nothing</t>
         </is>
       </c>
       <c r="E731" s="2" t="inlineStr"/>
@@ -14792,28 +15052,30 @@
       <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
+      <c r="A758" s="2" t="n">
+        <v>175</v>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>Mitzuko</t>
+          <t>Osman</t>
         </is>
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>Callañaupa</t>
+          <t>Sesay</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I can inspire and educate communities, promote AI innovation, foster collaboration, contribute to open-source projects, and advocate for responsible AI use—helping to grow and empower the AI ecosystem worldwide.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
@@ -15303,28 +15565,59 @@
       <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
+      <c r="A785" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Sanjoy</t>
         </is>
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t>RAHMAN</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would personally take a pro-active role in the PyTorch community by conducting hands-on sessions in workshops, webinars, and hackathons in an attempt to actively involve users with different skill sets. My goal is to mentor prospective practitioners with guidance through well-documented tutorials, blog entries, and contribution to codes solving real-world scenarios. By bringing teams together and promoting open-source collaborations, my aim is to facilitate an inclusive platform where exchange and innovation emerge, ultimately leading to PyTorch projects evolving further and linking to a wide user base.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+[R1] Classification of Circulating Tumor Cells Using Machine Learning on Microfluidic Trajectory Data.
+2025 IEEE International Conference on Acoustic, Speech and Signal processing, Paper ID 4170, 2024.
+Authors: Sanjoy Kumar, Huixin Zhan, Karl Gardner, Travis Thompson, Wei Kei, Yifan Wang
+[R2] Validation of a Microfluidic Device Prototype for Cancer Detection and Identification: Circulating
+Tumor Cells Classification Based on Cell Trajectory Analysis Leveraging Cell-Based Modeling and
+Machine Learning. Interdisciplinary Sciences - Computational Life Sciences (INSC), Submission ID: INSCD-24-00574, 2024.
+Authors: Rifat Rejuan; Eugenio Aulisa; Wei Li; Travis Thompson; Sanjoy Kumar; Suncica Canic; Yifan
+Wang
+[R3] Detecting and Removing Clouds Affected Regions from Satellite Images Using Deep Learning. IPSI
+Transactions on Internet Research, vol. 19(2), pp. 13-23, 2023. [Link]
+Authors: Egharevba, Lawrence. Kumar, Sanjoy. Amini, Hadi. Adjouadi, Malek and Rishe, Naphtali
+[R4] IoT Based Health Monitoring System in Case of Older &amp; Infectious Diseases in Bangladesh. 6th
+International Conference on Engineering Research, Innovation and Education School of Applied sciences
+&amp; Technology, SUST, Sylhet, ICERIE 2021 [Link]
+Authors: Md. Irfanul Hasan Tusar1*, Sanjoy Kumar2, K.M.E. Hasan3 and Md. Shahid Iqbal4
+[R5] Research Project: Yield Curve as Recession Indicator in the Framework of Machine Learning. #2,173
+in Education Theory Research, Amazon Kindle Publisher, 2022 [Link] [Codebase]
+Author: Sanjoy Kumar
+ASIN: B09BLBYBBG
+[R6] Research Report: Skills and Employments for the Future in Bangladesh. Economic Intelligence
+Bangladesh, Powered by The Business Standard, 2024 [Link]
+Authors: Ananya Raihan, Asif Ayon, Sanjoy Kumar from DataSense
+[R7] Research Project: Performance Improvement of a Diesel Engine Power Plant with Optimal Utilization.
+Research Book, Amazon Kindle Publisher, 2022 [Link]
+Author: Sanjoy Kumar
+ASIN: B082VJBXDL
+[R8] Report: State of Work in Bangladesh Gig Economy &amp; Digital Labor Platforms. Fairwork Bangladesh
+Ratings 2022 Report, 2023 [Link]
+Collaboration: University of Oxford (Oxford Internet Institute), DataSense (iSocial Limited, Bangladesh),
+WZB</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
@@ -15814,28 +16107,37 @@
       <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
+      <c r="A812" s="2" t="n">
+        <v>167</v>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>Sanjoy</t>
+          <t>Yoshitomo</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Matsubara</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would help students, engineers, and researchers in academia/industry in the following manners (but not limited to):
+- share knowledge about launching new PyTorch-based Python packages (CI/CD, PyPI, documentation, etc)
+- organize local (USA, Japan) / virtual events for encouraging the engineering and research communities to open-source and design reproducible projects
+- mentor those who want to start such projects themselves
+- offer tutorials about coding-free PyTorch-based frameworks for reproducible deep learning experiments
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a research scientist with strong passion of open source/science. [Most of my papers](https://yoshitomo-matsubara.net/publications/) are published with [code](https://github.com/yoshitomo-matsubara) and/or [artifacts](https://huggingface.co/yoshitomo-matsubara) for reproducibility and helping research communities build on my work.
+I am also an ML OSS developer (nights and weekends), actively developing pip-installable PyTorch frameworks, [torchdistill](https://github.com/yoshitomo-matsubara/torchdistill) and [sc2bench](https://github.com/yoshitomo-matsubara/sc2-benchmark), as the author for several years. torchdistill joined PyTorch Ecosystem in 2023 ([PyTorch Community Blog](https://pytorch.org/blog/enhancing-deep-learning/), [PyTorch Medium](https://medium.com/pytorch/torchdistill-a-modular-configuration-driven-framework-for-reproducible-deep-learning-and-9e0ecabf2815)).
+For the two PyTorch frameworks, I opened the discussion pages ([torchdistill](https://github.com/yoshitomo-matsubara/torchdistill/discussions) and [sc2bench](https://github.com/yoshitomo-matsubara/sc2-benchmark/discussions)) a few years ago and I actively help users there. Before that, I contributed to discussions and Q&amp;A at [pytorch/vision](https://github.com/pytorch/vision/issues?q=yoshitomo-matsubara) and [PyTorch Forums](https://discuss.pytorch.org/u/yoshitomo-matsubara/summary).
+I also gave [OSS talks](https://yoshitomo-matsubara.net/projects/oss/) at research workshops a few times.</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -16325,28 +16627,32 @@
       <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
+      <c r="A839" s="2" t="n">
+        <v>163</v>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>Yoshitomo</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>Matsubara</t>
+          <t>Nazif</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute to building an inclusive and thriving community by sharing my knowledge through workshops, webinars, and meetups focused on deep learning, model deployment, and real-world applications using PyTorch. I plan to organize regular hands-on events that help both beginners and intermediate learners gain practical experience with PyTorch.
+I also aim to launch a mentorship initiative to support newcomers in navigating their first PyTorch projects—guiding them through model building, environment setup, and contributing to open-source projects. Additionally, I will create and share educational content such as blog posts, tutorials, and video walkthroughs tailored for different learning levels.
+I’m passionate about bridging the gap between theory and practice. To that end, I plan to collaborate with universities and local tech communities to bring PyTorch into classrooms and grassroots initiatives. I will also actively engage in feedback loops with the PyTorch team and fellow ambassadors to help improve the framework and grow the global community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
@@ -16836,28 +17142,50 @@
       <c r="I865" t="inlineStr"/>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
+      <c r="A866" s="2" t="n">
+        <v>161</v>
       </c>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>Mirza</t>
+          <t>Jiho</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Abbas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+👨‍👩‍👧‍👦 PyTorch Korea User Group — Local Community Leadership  
+- Mentored 20+ contributors in open-source projects focused on PyTorch Korea tutorials
+- Organized and hosted 3 large-scale PyTorch tech conferences (100+ attendees each), fostering connections between developers and researchers
+- Contributed to key community platforms, including the PyTorch Korea website and YouTube channel, by promoting engagement and sharing feedback.
+📚 Knowledge Sharing
+- Authored an official PyTorch blog post, highlighting insights from community-led events
+- Consistently shared practical tips, tutorials, and event recaps to make PyTorch more approachable for Korean users
+- Conducted research and published papers using PyTorch-based models, bridging cutting-edge technology and real-world applications
+🚀 Future Contributions as Ambassador
+- Continue hosting quarterly events (virtual &amp; in-person) to educate, support, and grow the local PyTorch community
+(e.g., selecting timely and relevant topics each quarter, inviting expert speakers, and curating engaging sessions)
+- Leverage existing platforms (website &amp; YouTube) to amplify community engagement and content visibility
+(e.g., uploading seminar materials, publishing blog posts, and repurposing content for broader reach)
+- Share success stories and technical case studies from Korea with the global PyTorch network — and actively bring back global insights, best practices, and new developments to the Korean community.
+(through active involvement in both local and global PyTorch communities, ensuring two-way knowledge flow)
+- Create accessible learning materials to support newcomers and help advanced users grow—while continuing to learn and improve myself
+(as a hands-on researcher and practitioner, I plan to study, apply, and share essential techniques through real-world use cases)
+With a proven track record in leadership, mentorship, and community development, I’m committed to helping the PyTorch Ambassador initiative thrive—both locally and globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- PyTorch Korea User Group Community Operations Committee : https://pytorch.kr/
+- PyTorch Official Blog Posting: https://pytorch.org/blog/pt-korea-user-group-recap/?utm_campaign=4079123-PyTorch%20Blog%20Post%20Promotion&amp;utm_content=332053430&amp;utm_medium=social&amp;utm_source=linkedin&amp;hss_channel=lcp-78618366
+- PyTorch Korea Tutorials Contribution: https://github.com/PyTorchKorea/tutorials-kr
+- LinkedIn: https://www.linkedin.com/in/jih0/</t>
         </is>
       </c>
       <c r="E866" s="2" t="inlineStr"/>
@@ -17347,28 +17675,52 @@
       <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A893" s="2" t="n">
+        <v>156</v>
       </c>
       <c r="B893" s="2" t="inlineStr">
         <is>
-          <t>Ephraim</t>
+          <t>Ugama</t>
         </is>
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>Mwereza</t>
+          <t>Kelechi</t>
         </is>
       </c>
       <c r="D893" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, the nominee would deepen her engagement with the community through:
+1. Event Hosting and Knowledge Sharing: Organizing recurring PyTorch focused events such as workshops, local meetups, online webinars, and live coding sessions to help users of all levels grow their skills.
+2. Mentorship and Community Growth: Launching mentorship initiatives to guide newcomers in learning PyTorch and contributing to open source. This would include hands on cohort based learning, one on one mentorship, and office hours for beginners.
+3. Technical Evangelism: Creating high impact educational content, including real world project tutorials, model implementation guides, and beginner to advanced video series to broaden PyTorch’s reach.
+4. Community Building in Underserved Regions: Expanding the PyTorch community in regions with limited access to ML education by collaborating with local tech hubs, universities, and developer groups.
+With a proven track record of leadership, mentorship, and technical excellence, the nominee is well positioned to contribute meaningfully as a PyTorch Ambassador and help the initiative thrive globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+The nominee is a passionate advocate for open source and AI accessibility. In addition to HER work with PyTorch, SHE have contributed to several community driven initiatives focused on democratizing machine learning knowledge.
+Some highlights include:
+1. Technical Writing &amp; Blogs:
+The nominee maintains a blog where SHE publish insightful tutorials on PyTorch, covering topics such as building custom neural networks, transfer learning, and best practices for deploying models in production.
+Example: https://medium.com/@ugamakelechi501/getting-started-with-pytorch-a-beginner-friendly-guide-with-hands-on-examples-a475952b9390
+https://medium.com/@ugamakelechi501/understanding-pytorchs-dataloader-how-to-efficiently-load-and-augment-data-c9eb26f61491
+https://medium.com/@ugamakelechi501/building-a-convolutional-neural-network-cnn-from-scratch-with-pytorch-eca3ffdcf2ff
+ETC
+2. Conference Talks &amp; Workshops:
+SHE have spoken at multiple AI/ML events, such as [Google Build With AI], where SHE delivered sessions on PyTorch workflows, model optimization, and real world use cases.
+3. GitHub Contributions:
+HER GitHub profile showcases a variety of PyTorch projects, including notebooks, reusable modules, and utilities for faster experimentation.
+GitHub: https://github.com/Benedictakel/Sentiment-Analysis-with-LSTM-IMDB-Dataset-.git
+https://github.com/Benedictakel/Sentiment-Analysis-with-LSTM-IMDB-Dataset-.git
+https://github.com/Benedictakel/Predicting-House-Prices-with-PyTorch.git
+4. Mentorship Programs:
+SHE have served as a mentor in several programs such as Google Summer of Code (GSoC), AI Saturdays, and local university initiatives, helping students contribute to open source projects and deepen their understanding of machine learning with PyTorch.
+The nominee exemplifies the spirit of community, collaboration, and continuous learning—qualities that make them an excellent choice for the PyTorch Ambassador role.</t>
         </is>
       </c>
       <c r="E893" s="2" t="inlineStr"/>
@@ -17858,28 +18210,46 @@
       <c r="I919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
+      <c r="A920" s="2" t="n">
+        <v>153</v>
       </c>
       <c r="B920" s="2" t="inlineStr">
         <is>
-          <t>Ugama</t>
+          <t>Eikan</t>
         </is>
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>Kelechi</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D920" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Eikan is PyTorch TAC member and has played a critical role in enhancing the C++/OpenMP backend for TorchInductor, delivering significant performance improvements for key models and benchmarks. He designed a new pluggable backend registration mechanism that simplifies the process for new hardware integration. Additionally, he contributed to "Eager through torch.compile," enabling automatic kernel generation for ATen operations, and extended support for Intel GPUs within Inductor using Triton. 
+In addition, Eikan has been a key contributor to Intel GPU integration, defining its roadmap and aligning it with PyTorch's design philosophy. As the lead architect, he has been deeply involved in all Intel GPU components, including runtime, eager mode, and torch.compile, and has reviewed almost all Intel GPU-related PRs. Eikan’s work extends beyond Intel GPU, contributing to the generalization of the PyTorch runtime for broader accelerator support and working on making PyTorch’s distributed framework device-neutral. 
+Torch.compile
+• C++/OpenMP Backend: Eikan collaborated closely with Jason(@jansel), Bin(@desertfire), and Horace(@Chillee) to design and implement the C++/OpenMP backend of Inductor. One of his notable achievements was optimizing the TorchInductor C++/OpenMP backend, resulting in a significant improvement in the performance of the HF model from 0.97x to 1.2x prior to the first torch.compile announcement in PT 2.0. Eikan’s enabling work was featured in Jason’s presentation at the PyTorch Conference 2022. After the PT 2.0 announcement, Eikan continued to work with community contributors to enhance the Dynamo benchmarks through vectorization and further maturation of the C++/OpenMP backend - CPU backend performance update and deep dive on key optimizations
+    - Single-Socket Multi-threads, torchbench: 1.39x, huggingface: 1.20x, timm_models: 1.73x
+    - Single-core Single-thread, torchbench: 1.29x, huggingface: 1.15x, timm_models: 1.37x.
+• Pluggable Inductor Backend: Eikan designed and implemented a new mechanism for registering hardware backends within Inductor (RFC). This mechanism allows new hardware to register its backend-specific implementation at runtime, leveraging the fusion capabilities and optimizations of Inductor to simplify the process of supporting new devices. Compared to the Dynamo backend approach, this greatly reduces design and implementation complexity. The main focus for a new backend is on generating optimal code for specific devices. Eikan introduced this feature as a poster at the PyTorch Conference 2024.
+    - Inductor Backend Registration APIs: register_backend_for_device, get_scheduling_for_device, get_wrapper_codegen_for_device
+    - AOTInductor Registration APIs: RegisterAOTIModelRunner,  getAOTIModelRunnerRegistry
+• Eager Through torch.compile: This approach aims to automatically generate kernels for ATen operations using torch.compile, removing the need for backend-specific implementations for each operation. Eikan collaborated closely with Jason and Bin to finalize the design(RFC) and implement the static shape functionalities. For PyTorch 2.5, the registration API(_impl_with_aoti_compile) will be exposed to users for new hardware backend eager mode support. Eikan introduced the feature as a poster at the PyTorch conference 2024.
+• Intel GPU Backend: Eikan successfully extended Inductor to support Intel GPUs on top of Triton, enhancing and democratizing the PyTorch hardware ecosystem. With this support, PyTorch on Intel GPUs demonstrates promising performance and an improved out-of-the-box experience, significantly broadening PyTorch's applicability. Eikan has been actively involved in the Triton community, initiating support for Intel GPUs in Triton. His contributions laid a strong foundation for the Intel GPU backend within Inductor, and he enabled the Intel GPU backend by reusing much of the design and implementation of the existing Triton backend. Additionally, Eikan led efforts to generalize GPU accelerator support in Inductor by designing the DeviceInterface for GPU accelerators, which serves as a preliminary step towards a more generalized accelerator runtime in PyTorch. He delivered a presentation on the Intel GPU backend at the PyTorch Conference 2023.
+Intel GPU
+Eikan has played a pivotal role in Intel GPU integration, contributing to its design, development, and integration within the PyTorch ecosystem.
+As the lead architect, Eikan has been instrumental in defining the roadmap for Intel GPU integration and aligning it with PyTorch's overall vision. He has actively participated in discussions about integration strategies and has been deeply involved in every aspect of the Intel GPU components, such as eager mode, torch.compile, runtime, profiler, CI/CD, and more. Eikan has reviewed almost all Intel GPU-related PRs, ensuring that all contributions are aligned with PyTorch’s design philosophy, as outlined in the Intel GPU Enabling Status and Feature Plan. 
+Beyond Intel GPU-specific efforts, Eikan has been proactive in generalizing the Intel GPU runtime. He has closely collaborated with Alban@alband), Guanye(@guangyey) to generalize the PyTorch runtime for various accelerators. This effort not only facilitates PyTorch's deployment on a wide range of hardware but also simplifies the integration process for different hardware backends.
+Additionally, Eikan is working on generalizing PyTorch’s distributed framework to support a variety of distributed backends. The goal is to make PyTorch distributed device-neutral, thereby reducing the effort required to integrate new hardware. Regarding Intel GPU distributed support, Eikan leads the team in adopting a "generalize-first" approach before integrating the Intel GPU distributed backend.
+Eikan presented on Intel GPU integration at the PyTorch Conference 2024, where he shared insights on the progress and future plans for Intel GPU support within PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E920" s="2" t="inlineStr"/>
@@ -18369,28 +18739,37 @@
       <c r="I946" t="inlineStr"/>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+      <c r="A947" s="2" t="n">
+        <v>150</v>
       </c>
       <c r="B947" s="2" t="inlineStr">
         <is>
-          <t>Eikan</t>
+          <t>Masahiro</t>
         </is>
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Hiramori</t>
         </is>
       </c>
       <c r="D947" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to continue advocating for PyTorch in both industry and academia. I will host local meetups and online sessions in Japanese and English to lower language barriers for contributors. I also aim to share real-world deployment insights, especially around edge and AI chip inference, through blog posts and workshops. My goal is to grow and diversify the PyTorch ecosystem by making it more accessible and practically impactful.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am an Apache TVM committer and a 2024 PyTorch Contributor Award nominee. I’ve contributed to PyTorch ecosystem interoperability by implementing a Relax frontend for ExportedProgram with dynamic shape support. I’ve also actively shared knowledge through community contributions, public speaking, and academic research.
+I was a speaker at the first Japan PyTorch Regional User Group event hosted by the LF AI &amp; Data Foundation:
+https://lfaidata.foundation/blog/2025/02/20/first-japan-regional-user-group-rug-was-a-success/
+I also presented a paper at IEEE GCCE 2024:
+"Performance Evaluation of Apache TVM’s MetaSchedule for Image Classification Models on Edge Device"
+https://ieeexplore.ieee.org/document/10760375/
+TVM Contributions: https://github.com/apache/tvm/commits?author=mshr-h
+I’m passionate about fostering contributions from underrepresented regions, especially Asia, and about advancing deployment workflows for edge inference and AI chip platforms.</t>
         </is>
       </c>
       <c r="E947" s="2" t="inlineStr"/>
@@ -18880,28 +19259,38 @@
       <c r="I973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
+      <c r="A974" s="2" t="n">
+        <v>146</v>
       </c>
       <c r="B974" s="2" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Sarthak</t>
         </is>
       </c>
       <c r="C974" s="2" t="inlineStr">
         <is>
-          <t>Persson</t>
+          <t>Purohit</t>
         </is>
       </c>
       <c r="D974" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I work at Red Hat. Open-source contribution and tech talks are always welcome.
+There is a team working on upstream of Pytorch for our OpenShift-AI product.
+I will held in-person workshops and trainings on Pytorch and Deep learning model training.
+I've a laptop with CUDA capable NVIDIA GPU (8 GB vRAM).
+I can also demonstrate Pytorch's easy to use library leveraging GPU for faster compute.
+I can even contact nearby engineering colleges and conduct workshops for the students.
+I will also contribute to Pytorch and encourage fellow Red-hatters to do the same.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I've conducted workshops on Python, Pytorch and deep learning in my university campus.
+I've also conducted several workshops remotely during COVID lockdowns: https://www.linkedin.com/posts/sarthakpurohit_workshop-presentation-activity-6670400137145274368-rK_G?utm_source=share&amp;utm_medium=member_desktop&amp;rcm=ACoAACjj1_AB0J1NM9IccAVGIKcv8VTRri9kQf0
+Happy to progress more with this opportunity.</t>
         </is>
       </c>
       <c r="E974" s="2" t="inlineStr"/>
@@ -19391,28 +19780,31 @@
       <c r="I1000" t="inlineStr"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+      <c r="A1001" s="2" t="n">
+        <v>143</v>
       </c>
       <c r="B1001" s="2" t="inlineStr">
         <is>
-          <t>Mukharbek</t>
+          <t>Hossain</t>
         </is>
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>Organokov</t>
+          <t>Kabir</t>
         </is>
       </c>
       <c r="D1001" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m a Web3 Content Creation and content marketer with 4 years in crypto. 
+I’d love to join your team as an ambassador and help grow your community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1001" s="2" t="inlineStr"/>
@@ -19902,28 +20294,38 @@
       <c r="I1027" t="inlineStr"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
+      <c r="A1028" s="2" t="n">
+        <v>139</v>
       </c>
       <c r="B1028" s="2" t="inlineStr">
         <is>
-          <t>Haq</t>
+          <t>Mukharbek</t>
         </is>
       </c>
       <c r="C1028" s="2" t="inlineStr">
         <is>
-          <t>Malik</t>
+          <t>Organokov</t>
         </is>
       </c>
       <c r="D1028" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+- Advocate for PyTorch with tutorials and blogs for wide community:
+  - ML/LLM models serving;
+  - LLM fine-tuning;
+  - AI Agents;
+  - Graph Neural Networks with PyTorch;
+- Advocate for PyTorch within company;
+- LinkedIn posts daily with PyTorch tricks and some implementations;
+- Research with PyTorch;
+- (Willing) Probably some talks at local Paris meetups.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1028" s="2" t="inlineStr"/>
@@ -20413,28 +20815,36 @@
       <c r="I1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
+      <c r="A1055" s="2" t="n">
+        <v>130</v>
       </c>
       <c r="B1055" s="2" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>Ciro</t>
         </is>
       </c>
       <c r="C1055" s="2" t="inlineStr">
         <is>
-          <t>Toqeer</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="D1055" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute by fostering knowledge-sharing within both academic and applied AI communities, particularly in the medical imaging and computational biology domains. 
+I plan to organize practical workshops and hands-on sessions focused on deep learning for healthcare, making PyTorch more accessible to early-career researchers and students.
+Through my role as a university tutor and researcher, I already mentor students and guide them in building real-world AI systems using PyTorch—ranging from cytology applications to predictive models for public data challenges. I intend to scale this mentoring by launching open-source tutorials, challenge-based learning projects (e.g., medical image classification, multimodal fusion), and by promoting PyTorch adoption in interdisciplinary contexts like cultural heritage and smart cities.
+I am also the author of GravityNet, a PyTorch-based architecture designed for robust small object detection in biomedical images. The project is openly available on GitHub and serves as a foundation for applied research and reproducible experimentation in computational pathology and related fields.
+Finally, I would collaborate with existing community events (e.g., CVPL, university-led AI schools) to showcase PyTorch-based research pipelines, and support newcomers through public Q&amp;A sessions, live demos, and informal meetups, both in-person and online.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As an active contributor in both academic research and higher education, I’ve published peer-reviewed articles leveraging PyTorch for tasks such as nuclei detection, cytology classification, and breast cancer imaging. My work spans international collaborations in brain imaging and oncology, and I often use PyTorch to prototype, benchmark, and deploy deep learning pipelines.
+I also support educational outreach by tutoring in advanced training courses, where I help students develop PyTorch-based projects in areas like document AI and multimodal health diagnostics. Additionally, I’m developing open educational materials—such as Python packages, reproducible notebooks, and ML challenges (e.g., Formula 1 predictive modeling)—to engage students and early-stage researchers in applied AI.
+I am committed to lowering entry barriers and promoting a responsible and inclusive AI culture through open science and community collaboration.</t>
         </is>
       </c>
       <c r="E1055" s="2" t="inlineStr"/>
@@ -20924,28 +21334,35 @@
       <c r="I1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="A1082" s="2" t="n">
+        <v>125</v>
       </c>
       <c r="B1082" s="2" t="inlineStr">
         <is>
-          <t>Sadhana</t>
+          <t>Emre</t>
         </is>
       </c>
       <c r="C1082" s="2" t="inlineStr">
         <is>
-          <t>Panthi</t>
+          <t>Kurtoglu</t>
         </is>
       </c>
       <c r="D1082" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Hi,
+I received my PhD from The Univ. of Alabama. Currently, I work as an ML engineer at The Rockefeller University's Data Science Platform (DSP). The DSP department is founded last year, and we are currently 7 ML engineers. 
+We collaborate with researchers from biology and neuroscience labs to advance their research. We often attend different labs' weekly meetings and try to identify projects that we can work on. Our process often includes applying SOTA ML models to their datasets where PyTorch is the main framework we use. 
+There are also data science related groups at the university where we can promote PyTorch's events and schedule workshop-like meetings. Time-to-time they organize Python and data visualization workshops. I think, this can be a great opportunity to engage with The Rockefeller University's researchers. Looking forward to hearing back from you!
+Best,
+Emre
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1082" s="2" t="inlineStr"/>
@@ -21435,28 +21852,31 @@
       <c r="I1108" t="inlineStr"/>
     </row>
     <row r="1109">
-      <c r="A1109" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
+      <c r="A1109" s="2" t="n">
+        <v>122</v>
       </c>
       <c r="B1109" s="2" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Shoaib</t>
         </is>
       </c>
       <c r="C1109" s="2" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Aslam</t>
         </is>
       </c>
       <c r="D1109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I would actively engage with the PyTorch community by contributing to open-source development, sharing knowledge through tutorials and blogs, and organizing events. I would submit code improvements and domain-specific extensions (e.g., for predictive maintenance) to PyTorch’s GitHub, while participating in discussions to shape the framework’s evolution. To democratize access, I would create beginner-friendly content—like Colab notebooks on attention mechanisms for industrial applications—and host virtual meetups or hackathons focused on real-world challenges, such as fault detection in machinery.
+Additionally, I would prioritize mentorship and inclusivity through programs like PyTorch Lightning or university collaborations, guiding projects that bridge ML and engineering domains. To broaden participation, I would partner with groups like Women in ML to host workshops and translate resources into non-English languages. By measuring impact through metrics like GitHub contributions and event attendance, I would ensure their efforts tangibly strengthen PyTorch’s ecosystem for both researchers and practitioners.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1109" s="2" t="inlineStr"/>
@@ -21946,28 +22366,46 @@
       <c r="I1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
+      <c r="A1136" s="2" t="n">
+        <v>121</v>
       </c>
       <c r="B1136" s="2" t="inlineStr">
         <is>
-          <t>Trisan</t>
+          <t>Ruchi</t>
         </is>
       </c>
       <c r="C1136" s="2" t="inlineStr">
         <is>
-          <t>Wagle</t>
+          <t>Pakhle</t>
         </is>
       </c>
       <c r="D1136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to grow the PyTorch community in India (especially Bangalore) by organizing local meetups, beginner-friendly contribution sessions, and workshops focused on PyTorch fundamentals and ecosystem tools. I've already spoken with members of the Red Hat AI/ML team (including Cara and Jeremy) and @sdharane about expanding community efforts in Bangalore.
+I will:
+- Host monthly community sessions covering PyTorch fundamentals, real-world use cases, and contribution onboarding.
+- Publish technical content like blogs, reproducible notebooks, and video tutorials for newcomers.
+- Mentor early-career contributors interested in PyTorch and open-source AI/ML.
+- Collaborate with Red Hat and upstream maintainers to increase awareness and involvement in enterprise PyTorch usage.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have been an active contributor in open source since my early college days. Some of my key involvements include:
+- Linux Foundation Mentorship Program (LFX): Spring 2022 mentee at Open Horizon
+- Google Summer of Code (GSoC) 2025: Selected contributor for AsyncAPI
+- AsyncAPI Mentorship Program: Past mentee, contributing to specification and tooling for the Glee project
+- Ansible: Currently an active maintainer, regularly contributing to both collections and community infrastructure
+I’ve actively participated in various open-source communities and initiatives, mentoring others. 
+I am also a active speaker for national and international conferences like 
+- FOSSASIA SUMMIT 2025 wherein I delivered a talk on Effective Service Integration Testing: Using Testcontainers, LocalStack and Ansible Automation Platform for Streamlined Development
+- Spoke at DevConf.IN 2025 on the topic - Kafka Streams, Ansible Automates: Backbone for Building Scalable
+Event-Driven Systems
+I’m also currently contributing to and exploring PyTorch internally at Red Hat, focusing on upstream community involvement and enterprise usage patterns
+These experiences reflect my long-standing passion for open source, mentoring, and community building, which I would love to extend further as a PyTorch Ambassador.</t>
         </is>
       </c>
       <c r="E1136" s="2" t="inlineStr"/>
@@ -22457,10 +22895,8 @@
       <c r="I1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="A1163" s="2" t="n">
+        <v>120</v>
       </c>
       <c r="B1163" s="2" t="inlineStr">
         <is>
@@ -22474,11 +22910,20 @@
       </c>
       <c r="D1163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I produce a lot of contents about PyTorch and I use it every day at work. I think this nominee can increase my opportunity to reach a wider audience with a higher quality material
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+My last published work: https://link.springer.com/chapter/10.1007/978-3-031-87660-8_19
+Two more works are under publication. 
+My repo about tutorials: https://github.com/GiulioRusso/Python-tutorials
+My Python package with PyTorch: https://github.com/GiulioRusso/NMS-3D
+And much more: https://github.com/GiulioRusso/Ni-Dataset
+My boilerplate DL project with PyTorch: https://github.com/GiulioRusso/Deep-Learning-boilerplate</t>
         </is>
       </c>
       <c r="E1163" s="2" t="inlineStr"/>
@@ -22968,28 +23413,30 @@
       <c r="I1189" t="inlineStr"/>
     </row>
     <row r="1190">
-      <c r="A1190" s="2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
+      <c r="A1190" s="2" t="n">
+        <v>115</v>
       </c>
       <c r="B1190" s="2" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1190" s="2" t="inlineStr">
         <is>
-          <t>Bhandari</t>
+          <t>Hamid</t>
         </is>
       </c>
       <c r="D1190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+nan
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1190" s="2" t="inlineStr"/>
@@ -23479,28 +23926,33 @@
       <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
-      <c r="A1217" s="2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
+      <c r="A1217" s="2" t="n">
+        <v>113</v>
       </c>
       <c r="B1217" s="2" t="inlineStr">
         <is>
-          <t>Sandin</t>
+          <t>Saroj</t>
         </is>
       </c>
       <c r="C1217" s="2" t="inlineStr">
         <is>
-          <t>Maheeshakya</t>
+          <t>Dahal</t>
         </is>
       </c>
       <c r="D1217" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have been teaching Programming in my YouTube channel (https://youtube.com/@EverydayKarma) since 2019, and currently uploaded AI/ML related videos. From there, I will assist in promoting pytorch to my Nepali Tech community and to my students. Also, I am involved in various tech communities of Nepal, and it will be easier for me to reach out to different workshops and events with ease in different colleges, and organizations. And, we have our discord community too, of 1.5K people (https://bit.ly/ek_discord), where I most of the time do sessions and own workshops.
+And, currently, I am doing my Masters in Artificial Intelligence in Kathmandu University; and have engaged in some projects of AI/ML in the company, From there too, I will be fostering pytorch usage to my company and to the university programs and events.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+This link shows the tech events that I was involved in over the years :
+https://sarojdahal.com/events
+My Linkedin : https://linkedin.com/in/isarojdahal</t>
         </is>
       </c>
       <c r="E1217" s="2" t="inlineStr"/>
@@ -23990,28 +24442,32 @@
       <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
-      <c r="A1244" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
+      <c r="A1244" s="2" t="n">
+        <v>109</v>
       </c>
       <c r="B1244" s="2" t="inlineStr">
         <is>
-          <t>Saroj</t>
+          <t>Vash</t>
         </is>
       </c>
       <c r="C1244" s="2" t="inlineStr">
         <is>
-          <t>Dahal</t>
+          <t>Puno</t>
         </is>
       </c>
       <c r="D1244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will immediately immerse myself in the PyTorch community by organizing hands-on workshops and hackathons that bridge the gap between theory and practice. Drawing on my experience leading university-level Java workshops for over 200 attendees, I’ll host monthly deep-dive sessions—starting with tensor fundamentals and progressing to end-to-end CNN deployment on Azure. To spark broader excitement, I’ll co-curate a “PyTorch in Manila” hackathon that pairs newcomers with seasoned practitioners, complete with livestreamed talks and creative challenges.
+Dedicated to open source, I will give my best to release a "PyTorch AI Chatbot" GitHub repository—along with CI/CD pipelines through GitHub Actions—and encourage community contributions through a separate Discord channel where members may submit feature proposals, create pull requests, and highlight extensions. I also plan to establish partnerships with Metro Manila's computer science programs, incorporating PyTorch modules into course curricula and obtaining GPU sponsorships for student projects.
+Lastly, tapping into my background of presenting at local tech summits and coaching hackathon teams to podium finishes, I'll pitch PyTorch-themed presentations to meetups such as PUP Microsoft Student Community and Web3PH so that both academia and industry get to benefit from my work. This way, I won't only be mentoring Manila's PyTorch community—I'll enable it to thrive across the country.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1244" s="2" t="inlineStr"/>
@@ -24501,28 +24957,42 @@
       <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+      <c r="A1271" s="2" t="n">
+        <v>106</v>
       </c>
       <c r="B1271" s="2" t="inlineStr">
         <is>
-          <t>Jayed</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="C1271" s="2" t="inlineStr">
         <is>
-          <t>Mansur</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D1271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+PyTorch Community Leadership &amp; Contributions
+**Researcher &amp; Educator in PyTorch**
+1. Developed Denoising Diffusion Models for Medical Images using PyTorch and Stable Diffusion, creating synthetic radiographical datasets to advance medical imaging research. This work demonstrates deep expertise in PyTorch for cutting-edge computer vision tasks.
+2. Designed and implemented a multi-branch DDPM model, optimizing performance for generative AI—a project that could serve as an educational case study for PyTorch-based diffusion models.
+**Community Leadership &amp; Mentorship**
+1. Technical Content Creation: Authored open-source projects (e.g., ETL Template, Diffusion Models) with clear documentation on GitHub, providing reusable PyTorch examples for learners.
+2. Mentorship via Projects: Guided peers through PyTorch implementations in collaborative projects (e.g., medical imaging model), emphasizing best practices in model architecture and optimization.
+3. Workshops &amp; Knowledge Sharing: While not yet PyTorch-specific, my experience in deploying LLMs (Opus Match) and teaching data engineering tools (Talend, Airflow) highlights my ability to educate technical audiences—easily adaptable to PyTorch-focused sessions.
+**Future Plans as Ambassador**
+1. PyTorch Tutorial Series: Create step-by-step guides (blogs/videos) on diffusion models and LLM optimization, bridging research and practical applications.
+2. Mentorship Program: Launch a structured program for underrepresented groups, pairing learners with PyTorch projects (e.g., medical AI, recommendation systems).
+Why I’m a Strong Candidate
+My blend of applied PyTorch research (generative models, LLMs), open-source contributions, and experience mentoring data engineers positions me to uplift the PyTorch community. I’m eager to scale my impact through education, content, and advocacy.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1271" s="2" t="inlineStr"/>
@@ -25012,28 +25482,47 @@
       <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
-      <c r="A1298" s="2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
+      <c r="A1298" s="2" t="n">
+        <v>102</v>
       </c>
       <c r="B1298" s="2" t="inlineStr">
         <is>
-          <t>Akaash</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1298" s="2" t="inlineStr">
         <is>
-          <t>Tripathi</t>
+          <t>Shaukat</t>
         </is>
       </c>
       <c r="D1298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’ve used PyTorch and love how flexible it is—helping researchers prototype quickly and letting engineers scale things up in production. As a PyTorch Ambassador, here’s what I’d do:
+Bring People Together
+Regular Meetups: Every month, I’d host in-person or virtual “PyTorch Practice” sessions. We’d pick a small project—like fine-tuning a text classifier or building a simple object detector—and work through it step by step.
+Office Hours: I’d set up weekly slots on Zoom or Discord where anyone can drop in with questions, share code for feedback, or get unstuck on a bug.
+Create Helpful Content
+Blog Posts: I enjoy writing tutorials that explain not just the “how,” but the “why.” Expect short, focused articles on things like speeding up data loading, writing custom layers, and best practices for mixed-precision training.
+Video Guides: I’d produce quick screencasts (10–15 minutes) showing real code. For example, how to switch a model from single-GPU to multi-GPU, or how to debug a tricky shape mismatch.
+Example Notebooks: I’d keep an open-source repo with clear, commented notebooks—from beginner projects (MNIST digit recognition) to intermediate ones (transformer fine-tuning).
+Mentor and Teach
+Mentorship Circles: Small cohorts (3–5 people) would pair up with me or other senior volunteers for an 8-week program. We’d meet twice a month to review progress, discuss challenges, and set goals.
+Code Clinics: Folks could submit short snippets or pull requests, and I’d give feedback on clarity, efficiency, and style. It’s amazing how much you learn from one focused code review.
+Encourage Collaboration and Growth
+Hackathons: I’d organize quarterly “PyTorch Challenges”—48-hour events with themes like “AI for Good” or “Edge AI.” It’s a fun way to spark creativity, and I’d aim to offer small prizes or mentorship opportunities to winners.
+Inclusive Outreach: I’m passionate about diversity in tech. I’d partner with local student groups and nonprofits to run free beginner workshops, ensuring everyone feels welcome and supported.
+Feedback to Core: I regularly file and triage issues on the PyTorch GitHub repo. I’d keep that up, making sure the core team hears what real users need most.
+Represent PyTorch at Events
+I love speaking about what I’ve built. You’ll find me pitching talks at PyData, local ML meetups, and online panels—sharing tips on everything from production deployment to advanced model debugging.
+Looking Forward to contribute in PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1298" s="2" t="inlineStr"/>
@@ -25523,28 +26012,40 @@
       <c r="I1324" t="inlineStr"/>
     </row>
     <row r="1325">
-      <c r="A1325" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A1325" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="B1325" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Herumb</t>
         </is>
       </c>
       <c r="C1325" s="2" t="inlineStr">
         <is>
-          <t>Shaukat</t>
+          <t>Shandilya</t>
         </is>
       </c>
       <c r="D1325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone who has organized cohorts on PyTorch centric usecases in Cohere for AI for 1.5 years, I've come to realize that teaching how to use something promotes projects with great potential but if you tell some how that something works you are building a community of contributors then.
+Pytorch is a great frameworks and part of the reason is that we have "enough" level of control. However, the core components that power it are usually behind the scenes and often seen as "exotic". I love to to make these  more accessible and normal to the user.
+To be more concrete, I would love to conduct project sprints and develop content that demystifies these concepts in a more grounded approach i.e. if you were to discover this thing from nowhere how would you do it? The more approachable a code-base seems the more comfortable new contributors will feel.
+Logistics wise, I can organize learning groups at Stanford too, we have a big userbase of PyTorch users here!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I've been writing blogs and conducting educational cohorts for ~5 years now. It was in 2020 that I along with some passionate folks started "Build With Us" Cohorts at Crework. Here we chose a small set of peers divide them into teams and helped them build real-world products rather than simple PoC projects. We had weekly reading and implementation sessions on various topics revolving around various topics but implementations centering around PyTorch.
+In 2023, I started a channel "Beginners in Research Driven Studies"(BIRDS) at Cohere for AI, along with my 2 co-leads where we helped beginners to understand the process of research. Over the period of my time there we offered 3 programs:
+1. Mini Sprints: We choose a Paper to read and in week 1. We choose a lead to run the sprint who would explain the project from first principle and explain the paper. In week 2, that person would show case the implementation of the project which would be in PyTorch. In week 3 we had a guest speaker(usually the author of the paper) and in final week we showcased implementations of people in the community.
+2. Nidification: These we one-shot sessions centering around explanation of niched concepts.
+3. Mini Cohorts: This was an 8 week event with a more zero-to-hero agenda. I'll give the example of CUDA Cohort that I lead while I was there. We started by creating a syllabus for the 8 weeks without assumptions or pre-requisites along with weekly assignments for practice. Each week, we would give a session in a lite lecture type setting explaining concepts like GPU internals, C/C++, Working of various CPU components, Parallel Programming, PyTorch Internals, CUDA C, etc. Last 2-3 weeks, we would have a capstone projects that people would make. In our first cohort we had a registration of more than 150 people and many of them had really great Ideas to work on.
+I love communities and building them, they are not just a learning opportunity but a group a people with same goal. That is a motivation in itself, talking to people smarter than me is a privilege that becomes more accessible in communities.
+Blogs: https://journal.herumbshandilya.com/, https://www.geeksforgeeks.org/user/herumbshandilya/contributions/
+Beginners in Research Driven Studies: https://sites.google.com/cohere.com/coherelabs-community/community-programs/birds</t>
         </is>
       </c>
       <c r="E1325" s="2" t="inlineStr"/>
@@ -26034,28 +26535,35 @@
       <c r="I1351" t="inlineStr"/>
     </row>
     <row r="1352">
-      <c r="A1352" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="A1352" s="2" t="n">
+        <v>94</v>
       </c>
       <c r="B1352" s="2" t="inlineStr">
         <is>
-          <t>Prajwal</t>
+          <t>NOMTHANDAZO</t>
         </is>
       </c>
       <c r="C1352" s="2" t="inlineStr">
         <is>
-          <t>Shrestha</t>
+          <t>TSHUMA</t>
         </is>
       </c>
       <c r="D1352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a WTM Ambassador in Machine Learning, GDE, and active leader in GDG communities, I bring a strong foundation in advocacy, mentorship, and technical enablement. As a PyTorch Ambassador, I would amplify this reach to help the community thrive by:
+Organizing Events: I will lead inclusive PyTorch workshops, community talks, and hands-on sessions through established platforms such as GDG, WTM, and GCP Innovator events—bridging research, real-world application, and responsible AI practices.
+Mentorship &amp; Advocacy: As a WTM Ambassador, I focus on empowering women and underrepresented groups in AI. I’ll provide mentorship, run onboarding sessions, and build learning paths for those beginning their PyTorch journey.
+Knowledge Sharing: I’ll create and share tutorials, technical articles, and live coding sessions focused on PyTorch best practices—from model building to MLOps and edge AI—across multiple platforms and conferences like DevFest and She Builds AI.
+Community Collaboration: By connecting the PyTorch ecosystem with GCP, ML, and Responsible AI communities, I’ll foster impactful collaborations that drive innovation and inclusion.
+My goal is to help the PyTorch initiative scale sustainably while making it more accessible, practical, and community-driven.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+NOMTHANDAZO TSHUMA</t>
         </is>
       </c>
       <c r="E1352" s="2" t="inlineStr"/>
@@ -26545,28 +27053,53 @@
       <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
-      <c r="A1379" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="A1379" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="B1379" s="2" t="inlineStr">
         <is>
-          <t>Sandhya</t>
+          <t>Pratik</t>
         </is>
       </c>
       <c r="C1379" s="2" t="inlineStr">
         <is>
-          <t>Karki</t>
+          <t>Korat</t>
         </is>
       </c>
       <c r="D1379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a long-time core user of PyTorch with 6–7 years of hands-on experience across domains—including Computer Vision, Natural Language Processing, Reinforcement Learning, and Tabular Data—I bring both depth and versatility to the table. My proficiency in applying PyTorch to real-world problems, combined with my role as a Teaching Associate for Deep Learning and Machine Learning at San José State University, puts me in a strong position to make an immediate and sustained impact as a PyTorch Ambassador.
+My vision as an Ambassador is straightforward: grow the PyTorch community by enabling more developers, researchers, and students to adopt PyTorch not just as a framework, but as a mindset for rapid prototyping, reproducible research, and scalable deployment.
+Here’s how I will contribute:
+1. Community Engagement &amp; Knowledge Sharing
+I plan to actively contribute to the PyTorch ecosystem by:
+Publishing hands-on tutorials that bridge theory and practical implementation in CV, NLP, RL, and tabular modeling.
+Creating advanced walkthroughs for real-world problems, such as anomaly detection, fine-tuning LLMs, and multi-modal data processing.
+Sharing open-source repositories with annotated notebooks and reproducible results to encourage learning by doing.
+2. Event Hosting &amp; Technical Workshops
+Leveraging my university network and industry contacts, I will:
+Organize PyTorch hackathons and coding sprints focused on applied AI challenges.
+Host “PyTorch Deep-Dives” at universities and local tech meetups to demystify complex concepts like custom autograd functions, TorchScript, and model optimization techniques.
+Conduct live coding sessions and AMA-style webinars featuring both foundational topics and bleeding-edge research.
+3. Mentorship &amp; Teaching
+In my role as a Teaching Associate, I regularly mentor students who are transitioning from theoretical ML to real-world deep learning. As an Ambassador, I would scale this impact by:
+Launching a peer-mentorship program for students and early-career developers looking to build a strong PyTorch portfolio.
+Collaborating with faculty to integrate PyTorch-based labs into curriculum modules.
+Helping students prepare for research internships and ML competitions with curated PyTorch learning tracks.
+4. Forward-Looking Initiatives
+I plan to push the envelope by:
+Promoting PyTorch use in underrepresented areas such as tabular deep learning, causal inference, and simulation-based training.
+Collaborating on open-source benchmarks and reproducibility efforts that align with PyTorch’s mission of transparency and research-grade tooling.
+Advocating for responsible AI practices within the PyTorch ecosystem, including model interpretability and fairness audits.
+With a strong combination of applied expertise, academic involvement, and community enthusiasm, I’m ready to contribute meaningfully to the PyTorch Ambassador Program. My commitment is not just to use PyTorch, but to build a stronger, more inclusive, and forward-thinking community around it.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In addition to my teaching and community involvement, I actively conduct research using PyTorch. Most recently, I submitted a research paper addressing bias and fairness challenges in federated learning, specifically applied to the healthcare sector. The work leverages PyTorch to implement distributed model training with fairness-aware optimization strategies, showcasing how the framework can be used to tackle critical real-world issues in sensitive domains like healthcare. This further reflects my commitment to applying PyTorch not just for performance, but also for ethical and responsible AI.</t>
         </is>
       </c>
       <c r="E1379" s="2" t="inlineStr"/>
@@ -27056,28 +27589,32 @@
       <c r="I1405" t="inlineStr"/>
     </row>
     <row r="1406">
-      <c r="A1406" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A1406" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="B1406" s="2" t="inlineStr">
         <is>
-          <t>Junseo</t>
+          <t>Umair</t>
         </is>
       </c>
       <c r="C1406" s="2" t="inlineStr">
         <is>
-          <t>Ko</t>
+          <t>Inayat</t>
         </is>
       </c>
       <c r="D1406" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively contribute by fostering an inclusive and vibrant community around PyTorch through consistent knowledge-sharing, mentorship, and event organization. I plan to host hands-on workshops and meetups—both virtual and in-person—focused on real-world applications of PyTorch in research and industry. These events will range from beginner-level tutorials to advanced deep learning sessions, ensuring value for all levels of experience.
+Additionally, I will engage with the PyTorch community through content creation, such as blog posts, open-source tutorials, and YouTube walkthroughs, especially focusing on use-cases relevant to underrepresented domains or regions. I am also committed to mentoring aspiring developers and researchers by organizing office hours, Q&amp;A sessions, and project-based learning cohorts.
+By maintaining active participation in forums, social platforms, and open-source contributions, I aim to bridge the gap between cutting-edge research and practical application, helping the PyTorch initiative thrive and grow globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am also Microsoft student ambassador. https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pk.linkedin.com/in/umairinayat&amp;ved=2ahUKEwiswMqsqJeNAxVe3QIHHcFOEFsQjjh6BAgpEAE&amp;usg=AOvVaw2oZ5PvjGWzr0MBqajsTod4</t>
         </is>
       </c>
       <c r="E1406" s="2" t="inlineStr"/>
@@ -27567,28 +28104,38 @@
       <c r="I1432" t="inlineStr"/>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="A1433" s="2" t="n">
+        <v>86</v>
       </c>
       <c r="B1433" s="2" t="inlineStr">
         <is>
-          <t>Lazhar</t>
+          <t>Iflal</t>
         </is>
       </c>
       <c r="C1433" s="2" t="inlineStr">
         <is>
-          <t>Bouacha</t>
+          <t>Ismalebbe</t>
         </is>
       </c>
       <c r="D1433" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Should I assume the position of a PyTorch Ambassador, my main objective would be to cultivate a lively and welcoming community. I see myself as a connector between the PyTorch community and the enthusiastic students in Sri Lanka. I would engage actively in online forums, discussions on GitHub, and social media groups, offering support and sharing knowledge. These platforms are where the enchantment occurs—where newcomers pose their initial queries and experienced users offer their knowledge. By participating in these discussions, I can contribute to fostering a more cooperative and encouraging atmosphere. 
+Organizing events is another domain where I think I can create a meaningful difference. Workshops and seminars at my university and in the Sri Lankan AI community hub would happen regularly. These activities would accommodate a diverse array of skill levels, from beginners starting in machine learning to individuals aiming to excel in advanced methods using PyTorch. However, my attention wouldn’t end there. I’m especially eager about the opportunity to connect with high school students. Their enthusiasm and inquisitiveness are unmatched, and I think that by exposing them to machine learning at an early stage, we can motivate the upcoming generation of researchers and innovators. Consider the opportunities if we could direct that youthful eagerness towards impactful projects and studies! 
+Guiding others is another area I’m profoundly enthusiastic about. As a teacher, I have observed how guidance can influence a student's educational and career path. I would keep mentoring underclassmen at my university, providing support on their projects and assisting them in dealing with the intricacies of machine learning. However, I wouldn’t restrict myself to the university environment. I would offer my mentorship to the wider Sri Lankan AI community, engaging with those who are keen to learn and develop. Frequent check-ins, code assessments, and guidance on optimal practices can create a significant impact. 
+Sharing what I know is honestly at the heart of how I work. I love creating blog posts and tutorials about PyTorch that people can actually understand, no matter where they are in their journey. I try to make sure there's something for everyone - whether you're just starting out and need the basics explained clearly, or you're already deep into it and looking for some advanced techniques.
+One of my favorite things is running webinars and live coding sessions. There's nothing quite like that real-time interaction! When people can ask questions right away and we can work through problems together, that's when the real learning happens.
+I'm also big on teamwork. Working alongside the PyTorch team has been incredible - giving feedback, bouncing ideas around, and seeing how the platform grows based on what users actually need. I've become a bit of an unofficial PyTorch evangelist, talking it up in both schools and companies because I've seen firsthand how powerful it can be.
+You'll probably find me presenting at conferences, joining panel discussions, or chatting with industry folks about why PyTorch matters. It's not just about the tool itself - it's about the amazing community that's grown around it.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+As a university student in my final year and an intern in machine learning at Synapse AI Labs, my experience with PyTorch has been truly transformative. It’s the device I depend on every day, and it has turned into a crucial aspect of my educational and career life. My enthusiasm for machine learning goes beyond my individual projects; I experience great delight in imparting this knowledge to others, particularly in my position as an instructor at my university. As I assist junior students with their machine learning modules, I've witnessed how even minimal support can ignite a lasting passion for the subject. 
+here is my latest Blog in MEDIUM: https://medium.com/towards-artificial-intelligence/qwq-32b-alibabas-tiny-titan-challenges-ai-giants-in-reasoning-0d617d1560f2
+here is my LINKEDIN: http://linkedin.com/in/iflalismalebbe/</t>
         </is>
       </c>
       <c r="E1433" s="2" t="inlineStr"/>
@@ -28078,28 +28625,30 @@
       <c r="I1459" t="inlineStr"/>
     </row>
     <row r="1460">
-      <c r="A1460" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A1460" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="B1460" s="2" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Manas</t>
         </is>
       </c>
       <c r="C1460" s="2" t="inlineStr">
         <is>
-          <t>Anis</t>
+          <t>Thakur</t>
         </is>
       </c>
       <c r="D1460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I will help the community by organizing simple workshops, AI meetups, and hackathons that show how to use PyTorch from basic deep learning to real-world projects. I will also create learning paths for students and beginners, especially in areas where resources are limited. I will write blog posts, make easy tutorials, and create videos to help people understand PyTorch better. I will guide new contributors in working with open-source projects and research using PyTorch. I am also setting up an AI lab with help from students at IISER and NIT. In this lab, we will build useful AI tools and share our knowledge with others. My goal is to create a friendly and helpful space for anyone who wants to learn and grow with PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1460" s="2" t="inlineStr"/>
@@ -28589,28 +29138,40 @@
       <c r="I1486" t="inlineStr"/>
     </row>
     <row r="1487">
-      <c r="A1487" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A1487" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="B1487" s="2" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>Satyam</t>
         </is>
       </c>
       <c r="C1487" s="2" t="inlineStr">
         <is>
-          <t>MEDRANO</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D1487" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, my mission would be to build a friendly, inclusive, and innovation-driven community around deep learning. With a strong background in machine learning and computer vision, I want to help make PyTorch easier to understand and use—especially for those just beginning their journey in AI.
+One of my biggest passions is making AI practical and accessible. I truly believe that PyTorch is more than just a powerful framework—it’s a bridge between ideas and real-world solutions. Whether it's through organizing hands-on workshops, creating simple tutorials, or encouraging open-source projects, I aim to break down complex concepts so that more people can use them in meaningful ways.
+Many students and developers around the world don’t always have access to advanced tools or guidance. That’s why I see this role as a chance to reach out, share knowledge, and support those who want to learn and build with PyTorch. By mentoring others, having open discussions, and working together, we can create an environment where everyone feels welcome and empowered.
+Most importantly, I see the PyTorch Ambassador program as a way to inspire and grow with a global community. It’s about more than just code—it’s about people coming together to shape the future of AI in ethical and impactful ways. I’m excited by the idea of learning from others while helping them bring their ideas to life with PyTorch at the heart of it all.
+Together, we can turn curiosity into creativity, and challenges into opportunities—one model, one idea, and one shared goal at a time.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Connect with Me
+You can explore more of my work, projects, and community efforts through the following platforms. I share open-source contributions, educational resources, and AI insights regularly:
+Portfolio: isatyamks.vercel.app
+GitHub: github.com/isatyamks
+LinkedIn: linkedin.com/in/isatyamks
+Twitter/X: x.com/isatyamks
+These links reflect my commitment to making deep learning and PyTorch resources more accessible for everyone.</t>
         </is>
       </c>
       <c r="E1487" s="2" t="inlineStr"/>
@@ -29100,10 +29661,8 @@
       <c r="I1513" t="inlineStr"/>
     </row>
     <row r="1514">
-      <c r="A1514" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A1514" s="2" t="n">
+        <v>75</v>
       </c>
       <c r="B1514" s="2" t="inlineStr">
         <is>
@@ -29117,11 +29676,16 @@
       </c>
       <c r="D1514" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I want to contribute to pytorch to enrich my skills in pytorch. I have some projects in pytorch and pytorch lightning.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Lists of some links for projects (for more projects please check the github https://github.com/AslauAlexandru): https://github.com/AslauAlexandru/Week-3-Headstarter-Accelerator-Project-3-Brain-Tumor-Classification-with-Neural-Networks https://github.com/AslauAlexandru/Week-1-Headstarter-Accelerator-Project-1-Customer-Churn-Prediction-with-Machine-Learning https://github.com/AslauAlexandru/Week-2-Headstarter-Accelerator-Bonus-Project-Credit-Card-Fraud-Detection-with-ML https://github.com/AslauAlexandru/Week-5-Headstarter-Accelerator-Project-5-Web-app-for-Codebase-RAG I have unpublished paper in medical image segmantation I developed a new architecture in Deep Learning the name is MADoubleResUnet++, this architecture is combination of Unet, DoubleU-Net, ResUnet and attention mechanism (such as SqeezNet and so on). I use this architecture for segmanting polyps. I have experience in python and I use tensorflow and keras, some pytorch, some pytorch lightning, sklearn, matplotlib, seaborn and so on. Programming Languages: Python, TypeScript/JavaScript, Java, SQL, PHP, C/C++, C# and Matlab (First I use almost all programming languages in Bachelor's degree and in Master's degree and second I use Python (Scikit-learn , TensorFlow, Langchain and many more) and TypeScript/JavaScript in personal projects, Headstarter Accelerator, non-research internships and so on. Software: Scikit-learn , TensorFlow, Langchain, JupyterNotebook, Google Colab, Kaggle Notebook, Pandas, Seaborn, Matplotlib, Numpy, Pytorch Lightning (some), Pytorch (some), Groq, Transformers, Ngrok, google-generativeai, OpenAI (with Groq Api Key), Streamlit and Gradio.
+Brain Tumor Classification| Open-Source( ~ inhours)-GithubNov 2024-Nov2024• Used neural networks in Python toclassify 1000 MRI scans into 3 types of possible brain diseases with custommodel•Generated multimodal MRI reports for neurosurgeonsin under 200MS after image classification, construction &amp;trainingCredit CardFraud Detection with ML|Open-source(~ inhours)-GithubOct 2024–Oct 2024• UsedML algorithms (e.g.XGBoost,Random Forest,K-Nearest Neighbors,SVM and so on) in Python to classify fraudulentor not, usedCredit Card Transactions Fraud Detection Dataset, Llama 3.1/3.2, Groqto evaluate accuracy of predicting•In this project, the task is to build an ML modelto determine whether or not a credit card transaction is fraudulent or not.US-Bank Churn Prediction|Open-source (~ inhours)-GithubSep 2025-Oct2025•Used 30k+ data set, Llama 3.1b, Groq and/or Vercel to evaluate accuracy of predicting when banking customer quits•Created an end-to-end solution complete with sending automated personalized email to banking customer based on featureengineering, normalization, model training, evaluating and hyperparameter tuning across 5 LLM models</t>
         </is>
       </c>
       <c r="E1514" s="2" t="inlineStr"/>
@@ -29611,28 +30175,39 @@
       <c r="I1540" t="inlineStr"/>
     </row>
     <row r="1541">
-      <c r="A1541" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A1541" s="2" t="n">
+        <v>61</v>
       </c>
       <c r="B1541" s="2" t="inlineStr">
         <is>
-          <t>Marimuthu</t>
+          <t>Debashish</t>
         </is>
       </c>
       <c r="C1541" s="2" t="inlineStr">
         <is>
-          <t>Kalimuthu</t>
+          <t>Chakraborty</t>
         </is>
       </c>
       <c r="D1541" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have been actively using PyTorch since 2018 as the foundation for my research and development work. As a Research Fellow at JHU's Center for Language and Speech Processing, I specialize in multimodal machine learning with a focus on dimensionality reduction techniques and efficient model implementations. My expertise spans the development of scalable ML systems for both academic research and practical applications. I think there is more I can give back to the community than I have taken in the last 7 years.
+My technical strengths include optimizing multimodal model architectures with PyTorch, implementing hardware-aware compression techniques for ML models, and developing custom CUDA and Triton kernels to accelerate machine learning workloads. This is evidenced by my GitHub projects such as KernelHeim, which provides custom Triton and CUDA kernel functions designed specifically for PyTorch-based ML workloads. I am also an active CUDA Mode member and contribute to discussions on the forum as well.
+I actively contribute to open-source PyTorch projects, including recent contributions to HuggingFace's nanoVLM, a minimalist Vision-Language Model implementation in pure PyTorch. I've also developed classification systems for distinguishing between human-written and machine-generated text, demonstrating my ability to leverage PyTorch's full ecosystem for creating end-to-end solutions. However, I would like to increase my footprint for contribution to the ecosystem.
+As a PyTorch Ambassador, I plan to:
+ 1. Foster a community focused on efficient ML implementations by hosting quarterly workshops on PyTorch performance optimization techniques, including model distillation, quantization, and hardware acceleration.
+ 2. Create and share educational content focused on developing custom kernels and backends for PyTorch,  making advanced optimization techniques more accessible to developers.
+ 3. Build open-source repositories showcasing multimodal ML applications with a focus on practical, production-ready code that follows best practices.
+ 4. Mentor students and professionals in applying PyTorch to multidisciplinary problems, particularly at the intersection of NLP, computer vision, and audio processing.
+ 5. Contribute to discussions around PyTorch's continued evolution, particularly in areas of model efficiency, distributed training, and hardware-specific optimizations.
+This ambassadorship will enable me to bridge my technical expertise with community engagement, helping others leverage PyTorch's capabilities while simultaneously deepening my own involvement in the global PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1541" s="2" t="inlineStr"/>
@@ -30122,28 +30697,32 @@
       <c r="I1567" t="inlineStr"/>
     </row>
     <row r="1568">
-      <c r="A1568" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="A1568" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="B1568" s="2" t="inlineStr">
         <is>
-          <t>Windsor</t>
+          <t>Prakash</t>
         </is>
       </c>
       <c r="C1568" s="2" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Baburaj</t>
         </is>
       </c>
       <c r="D1568" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will actively learn about the latest updates in pytorch and organize monthly meetups to discuss features and how it can be used to improve our code.
+Also, I have a group of people who are well versed in pytorch and could help mentor others if we can organize a hackathon.
+I also plan on making bite sized content that I will publish on LinkedIn weekly.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1568" s="2" t="inlineStr"/>
@@ -30633,28 +31212,31 @@
       <c r="I1594" t="inlineStr"/>
     </row>
     <row r="1595">
-      <c r="A1595" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A1595" s="2" t="n">
+        <v>54</v>
       </c>
       <c r="B1595" s="2" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Saikumarreddy</t>
         </is>
       </c>
       <c r="C1595" s="2" t="inlineStr">
         <is>
-          <t>SERÇE</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D1595" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a senior data scientist, founder of ApexIQ.ai, and active YouTuber, I am passionate about making data science and generative AI accessible to everyone. My channel and blog feature high-quality tutorials, hands-on projects, and deep dives into PyTorch’s latest tools and techniques. By subscribing, you’ll join a vibrant community of learners and professionals, gain practical skills, and stay ahead in the rapidly evolving world of AI. Whether you’re a beginner or an experienced practitioner, my content is designed to help you master PyTorch and unlock new opportunities in AI.
+Let me know if you want it tailored further for a specific audience or platform!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1595" s="2" t="inlineStr"/>
@@ -31144,28 +31726,32 @@
       <c r="I1621" t="inlineStr"/>
     </row>
     <row r="1622">
-      <c r="A1622" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="A1622" s="2" t="n">
+        <v>52</v>
       </c>
       <c r="B1622" s="2" t="inlineStr">
         <is>
-          <t>subburaj</t>
+          <t>Aditya</t>
         </is>
       </c>
       <c r="C1622" s="2" t="inlineStr">
         <is>
-          <t>sankarappan</t>
+          <t>Thakuri</t>
         </is>
       </c>
       <c r="D1622" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+So i have been an captain of one college IT community and being there have taught me to lead a group of people and continue learn and grow along side them. I have been there helped many in my college for their learning activities. I have been learning Pytorch for last 6 months now, I may not be that good for now but i can assure i can teach some individual some basics and can guide them the right way for diving into Deep Learning way. 
+I would first create a strong and small team. Then we will try to organize an event in the valley where we invite all the local ML experts and tech companies also and help the participant know whats going around in the field giving them the opportunity of networking with the professionals. 
+Then we will try to conduct a series of monthly meetup, sessions, workshops so that a good pytorch community will build here in our country also.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1622" s="2" t="inlineStr"/>
@@ -31655,28 +32241,30 @@
       <c r="I1648" t="inlineStr"/>
     </row>
     <row r="1649">
-      <c r="A1649" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="A1649" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="B1649" s="2" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Pradheep</t>
         </is>
       </c>
       <c r="C1649" s="2" t="inlineStr">
         <is>
-          <t>Melvin</t>
+          <t>Raghavan</t>
         </is>
       </c>
       <c r="D1649" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+use pytorch and posy about it
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1649" s="2" t="inlineStr"/>
@@ -32166,28 +32754,33 @@
       <c r="I1675" t="inlineStr"/>
     </row>
     <row r="1676">
-      <c r="A1676" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A1676" s="2" t="n">
+        <v>45</v>
       </c>
       <c r="B1676" s="2" t="inlineStr">
         <is>
-          <t>Saikumarreddy</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C1676" s="2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>KANGONI</t>
         </is>
       </c>
       <c r="D1676" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm currently a Zindi Country Ambassador in my country(DR Congo). Zindi contributes to the advancement of data science, and in our training courses, we also offer workshops on deep learning. So, with my PyTorch Ambassador status, I could easily introduce my community to learn and use PyTorch. My community is made up of computer science and mathematics students from across the country.
+I could therefore organize PyTorch events without linking them to Zindi's events, where we would also involve machine learning professionals in the country.
+In my case, I  currently have a good knowledge of PyTorch, but I sometimes use TensorFlow or Jax. Being an ambassador will allow me to stay focused on PyTorch and become an expert.
+I mainly use pytorch for PINNs, field i'm currently learning, so i don't start to commit my projects in GitHub.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/sam-matia-4b051125b/</t>
         </is>
       </c>
       <c r="E1676" s="2" t="inlineStr"/>
@@ -32677,28 +33270,31 @@
       <c r="I1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A1703" s="2" t="n">
+        <v>44</v>
       </c>
       <c r="B1703" s="2" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Rawanna</t>
         </is>
       </c>
       <c r="C1703" s="2" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Chathuranga</t>
         </is>
       </c>
       <c r="D1703" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+In my country there are lots of people who are interested in AI/ML but they don't have much idea about it. As an ambassador I will host an events to educate them on how to use basic pytorch operations,using pytorch for deep learning, custom functions, optimized inference etc. I will also starting write blog posts on deep learning applications using pytorch. This will contain mostly applied ml. I have an idea to start a YouTube channel on deep learning fundamentals and then applications of deep learning. For that, everything will be written in pure pytorch. In addition to above plans, I will help people on /learnmachinelearning as usual. I am active member on that subreddit.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have started reading learn pytorch step by step book. Currently I have finished 75% of the book. My work related to the book is also uploaded to the GitHub repo.
+https://github.com/Anushkach/Deep-Learning/tree/main/Deep%20Learning%20with%20Pytorch</t>
         </is>
       </c>
       <c r="E1703" s="2" t="inlineStr"/>
@@ -33188,28 +33784,30 @@
       <c r="I1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A1730" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="B1730" s="2" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C1730" s="2" t="inlineStr">
         <is>
-          <t>Goheen</t>
+          <t>Shad</t>
         </is>
       </c>
       <c r="D1730" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m excited about the opportunity to support the PyTorch community by making it more approachable and active in my region. I plan to host regular events, like hands-on workshops or online meetups, to help students, researchers, and developers learn how to use PyTorch in real-world projects. I also want to mentor beginners and those transitioning into deep learning by guiding them through practical problems and sharing helpful resources. I’ll create and share content like simple tutorials, blog posts, and example code to make learning PyTorch easier. On top of that, I’ll stay active on community platforms like the PyTorch forums and Slack to help answer questions and connect with others. My goal is to grow a friendly and supportive local PyTorch community that contributes back to the global one.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1730" s="2" t="inlineStr"/>
@@ -33699,28 +34297,31 @@
       <c r="I1756" t="inlineStr"/>
     </row>
     <row r="1757">
-      <c r="A1757" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A1757" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="B1757" s="2" t="inlineStr">
         <is>
-          <t>Krishna</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="C1757" s="2" t="inlineStr">
         <is>
-          <t>Kalyan</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="D1757" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an HPC analyst at Sharcnet, my primary job is to support researchers from across Ontario with their use of Canada's national research supercomputing resources. My primary area of expertise is machine learning, specifically deep learning in PyTorch. In this capacity I have also developed training materials for using PyTorch in our computing environment, introducing researchers to the possibilities of using the PyTorch framework to accelerate research. Previous talks can be found at www.youtube.com/@SHARCNET_HPC.
+As an Ambassador, I would be able to provide greater outreach to the research community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1757" s="2" t="inlineStr"/>
@@ -34210,28 +34811,34 @@
       <c r="I1783" t="inlineStr"/>
     </row>
     <row r="1784">
-      <c r="A1784" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="A1784" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="B1784" s="2" t="inlineStr">
         <is>
-          <t>Ameer</t>
+          <t>Ojas</t>
         </is>
       </c>
       <c r="C1784" s="2" t="inlineStr">
         <is>
-          <t>Hadi</t>
+          <t>Patil</t>
         </is>
       </c>
       <c r="D1784" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+- Workshops: Helping students learn how to use the fundamentals of PyTorch through model building and deployment with hands-on PyTorch sessions.
+- Office Hours &amp; Mentorship: Conducting weekly sessions, where beginners are guided through mini-projects by experienced users, also known as “Drop-In Hours”.
+- Community Hub: Creating a Discord channel and a monthly newsletter to highlight submitted tutorials, spotlight projects, and schedule events.
+- Collaborations &amp; Challenges: Organizing study groups and themed hackathons alongside collaboration with other clubs/groups.
+Having led 5-day Deep Learning bootcamp, mentored over a hundred students, and gaining real-world experience using PyTorch, I will actively work towards establishing a practical and sustained PyTorch environment on campus.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1784" s="2" t="inlineStr"/>
@@ -34720,1030 +35327,8 @@
       </c>
       <c r="I1810" t="inlineStr"/>
     </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B1811" s="2" t="inlineStr">
-        <is>
-          <t>shashanka</t>
-        </is>
-      </c>
-      <c r="C1811" s="2" t="inlineStr">
-        <is>
-          <t>br</t>
-        </is>
-      </c>
-      <c r="D1811" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1811" s="2" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1811" t="inlineStr"/>
-    </row>
-    <row r="1812">
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1812" t="inlineStr"/>
-    </row>
-    <row r="1813">
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1813" t="inlineStr"/>
-    </row>
-    <row r="1814">
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1814" t="inlineStr"/>
-    </row>
-    <row r="1815">
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1815" t="inlineStr"/>
-    </row>
-    <row r="1816">
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1816" t="inlineStr"/>
-    </row>
-    <row r="1817">
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1817" t="inlineStr"/>
-    </row>
-    <row r="1818">
-      <c r="F1818" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1818" t="inlineStr"/>
-    </row>
-    <row r="1819">
-      <c r="F1819" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1819" t="inlineStr"/>
-    </row>
-    <row r="1820">
-      <c r="F1820" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1820" t="inlineStr"/>
-    </row>
-    <row r="1821">
-      <c r="F1821" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1821" t="inlineStr"/>
-    </row>
-    <row r="1822">
-      <c r="F1822" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1822" t="inlineStr"/>
-    </row>
-    <row r="1823">
-      <c r="F1823" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1823" t="inlineStr"/>
-    </row>
-    <row r="1824">
-      <c r="F1824" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1824" t="inlineStr"/>
-    </row>
-    <row r="1825">
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1825" t="inlineStr"/>
-    </row>
-    <row r="1826">
-      <c r="F1826" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1826" t="inlineStr"/>
-    </row>
-    <row r="1827">
-      <c r="F1827" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1827" t="inlineStr"/>
-    </row>
-    <row r="1828">
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1829" t="inlineStr"/>
-    </row>
-    <row r="1830">
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1830" t="inlineStr"/>
-    </row>
-    <row r="1831">
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1831" t="inlineStr"/>
-    </row>
-    <row r="1832">
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1832" t="inlineStr"/>
-    </row>
-    <row r="1833">
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1833" t="inlineStr"/>
-    </row>
-    <row r="1834">
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1834" t="inlineStr"/>
-    </row>
-    <row r="1835">
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1835" t="inlineStr"/>
-    </row>
-    <row r="1836">
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1836" t="inlineStr"/>
-    </row>
-    <row r="1837">
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1837" t="inlineStr"/>
-    </row>
-    <row r="1838">
-      <c r="A1838" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B1838" s="2" t="inlineStr">
-        <is>
-          <t>Badar</t>
-        </is>
-      </c>
-      <c r="C1838" s="2" t="inlineStr">
-        <is>
-          <t>Butt</t>
-        </is>
-      </c>
-      <c r="D1838" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1838" s="2" t="inlineStr"/>
-      <c r="F1838" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1838" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1838" t="inlineStr"/>
-    </row>
-    <row r="1839">
-      <c r="F1839" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1839" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1839" t="inlineStr"/>
-    </row>
-    <row r="1840">
-      <c r="F1840" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1840" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1840" t="inlineStr"/>
-    </row>
-    <row r="1841">
-      <c r="F1841" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1841" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1841" t="inlineStr"/>
-    </row>
-    <row r="1842">
-      <c r="F1842" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1842" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1842" t="inlineStr"/>
-    </row>
-    <row r="1843">
-      <c r="F1843" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1843" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1843" t="inlineStr"/>
-    </row>
-    <row r="1844">
-      <c r="F1844" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1844" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1844" t="inlineStr"/>
-    </row>
-    <row r="1845">
-      <c r="F1845" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1845" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1845" t="inlineStr"/>
-    </row>
-    <row r="1846">
-      <c r="F1846" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1846" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1846" t="inlineStr"/>
-    </row>
-    <row r="1847">
-      <c r="F1847" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1847" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1847" t="inlineStr"/>
-    </row>
-    <row r="1848">
-      <c r="F1848" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1848" t="inlineStr"/>
-    </row>
-    <row r="1849">
-      <c r="F1849" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1849" t="inlineStr"/>
-    </row>
-    <row r="1850">
-      <c r="F1850" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1850" t="inlineStr"/>
-    </row>
-    <row r="1851">
-      <c r="F1851" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1851" t="inlineStr"/>
-    </row>
-    <row r="1852">
-      <c r="F1852" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1852" t="inlineStr"/>
-    </row>
-    <row r="1853">
-      <c r="F1853" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1853" t="inlineStr"/>
-    </row>
-    <row r="1854">
-      <c r="F1854" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1854" t="inlineStr"/>
-    </row>
-    <row r="1855">
-      <c r="F1855" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1855" t="inlineStr"/>
-    </row>
-    <row r="1856">
-      <c r="F1856" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1856" t="inlineStr"/>
-    </row>
-    <row r="1857">
-      <c r="F1857" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1857" t="inlineStr"/>
-    </row>
-    <row r="1858">
-      <c r="F1858" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1858" t="inlineStr"/>
-    </row>
-    <row r="1859">
-      <c r="F1859" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1859" t="inlineStr"/>
-    </row>
-    <row r="1860">
-      <c r="F1860" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1860" t="inlineStr"/>
-    </row>
-    <row r="1861">
-      <c r="F1861" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1861" t="inlineStr"/>
-    </row>
-    <row r="1862">
-      <c r="F1862" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1862" t="inlineStr"/>
-    </row>
-    <row r="1863">
-      <c r="F1863" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1863" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1863" t="inlineStr"/>
-    </row>
-    <row r="1864">
-      <c r="F1864" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1864" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1864" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="345">
+  <mergeCells count="335">
     <mergeCell ref="B1703:B1729"/>
     <mergeCell ref="A974:A1000"/>
     <mergeCell ref="E1109:E1135"/>
@@ -35763,9 +35348,7 @@
     <mergeCell ref="C1325:C1351"/>
     <mergeCell ref="E1325:E1351"/>
     <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B1838:B1864"/>
     <mergeCell ref="D2:D28"/>
-    <mergeCell ref="D1838:D1864"/>
     <mergeCell ref="A326:A352"/>
     <mergeCell ref="B569:B595"/>
     <mergeCell ref="D569:D595"/>
@@ -35806,7 +35389,6 @@
     <mergeCell ref="D488:D514"/>
     <mergeCell ref="A785:A811"/>
     <mergeCell ref="C785:C811"/>
-    <mergeCell ref="C1811:C1837"/>
     <mergeCell ref="D1460:D1486"/>
     <mergeCell ref="B1622:B1648"/>
     <mergeCell ref="D1622:D1648"/>
@@ -35887,7 +35469,6 @@
     <mergeCell ref="B1406:B1432"/>
     <mergeCell ref="B1325:B1351"/>
     <mergeCell ref="D1136:D1162"/>
-    <mergeCell ref="E1811:E1837"/>
     <mergeCell ref="D1568:D1594"/>
     <mergeCell ref="E1460:E1486"/>
     <mergeCell ref="B1541:B1567"/>
@@ -35914,7 +35495,6 @@
     <mergeCell ref="C164:C190"/>
     <mergeCell ref="D1055:D1081"/>
     <mergeCell ref="E947:E973"/>
-    <mergeCell ref="A1838:A1864"/>
     <mergeCell ref="C1784:C1810"/>
     <mergeCell ref="E1514:E1540"/>
     <mergeCell ref="A1352:A1378"/>
@@ -36044,8 +35624,6 @@
     <mergeCell ref="D245:D271"/>
     <mergeCell ref="A515:A541"/>
     <mergeCell ref="D1271:D1297"/>
-    <mergeCell ref="B1811:B1837"/>
-    <mergeCell ref="D1811:D1837"/>
     <mergeCell ref="B1379:B1405"/>
     <mergeCell ref="D1379:D1405"/>
     <mergeCell ref="A1163:A1189"/>
@@ -36066,9 +35644,7 @@
     <mergeCell ref="D1325:D1351"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="C2:C28"/>
-    <mergeCell ref="C1838:C1864"/>
     <mergeCell ref="E2:E28"/>
-    <mergeCell ref="E1838:E1864"/>
     <mergeCell ref="B947:B973"/>
     <mergeCell ref="D947:D973"/>
     <mergeCell ref="C1622:C1648"/>
@@ -36085,13 +35661,12 @@
     <mergeCell ref="C218:C244"/>
     <mergeCell ref="A758:A784"/>
     <mergeCell ref="B1136:B1162"/>
-    <mergeCell ref="A1811:A1837"/>
     <mergeCell ref="E1001:E1027"/>
     <mergeCell ref="C1541:C1567"/>
     <mergeCell ref="E1541:E1567"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810 I1811 I1812 I1813 I1814 I1815 I1816 I1817 I1818 I1819 I1820 I1821 I1822 I1823 I1824 I1825 I1826 I1827 I1828 I1829 I1830 I1831 I1832 I1833 I1834 I1835 I1836 I1837 I1838 I1839 I1840 I1841 I1842 I1843 I1844 I1845 I1846 I1847 I1848 I1849 I1850 I1851 I1852 I1853 I1854 I1855 I1856 I1857 I1858 I1859 I1860 I1861 I1862 I1863 I1864" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36105,7 +35680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36181,10 +35756,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
+      <c r="A2" t="n">
+        <v>300</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -36238,19 +35811,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
+      <c r="A3" t="n">
+        <v>292</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_No</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>response_</t>
+          <t>Guerra</t>
         </is>
       </c>
       <c r="D3">
@@ -36295,19 +35866,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
+      <c r="A4" t="n">
+        <v>289</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orestis</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Makris</t>
+          <t>Arroyo</t>
         </is>
       </c>
       <c r="D4">
@@ -36352,19 +35921,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
+      <c r="A5" t="n">
+        <v>286</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aayusha</t>
+          <t>Orestis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adhikari</t>
+          <t>Makris</t>
         </is>
       </c>
       <c r="D5">
@@ -36409,19 +35976,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
+      <c r="A6" t="n">
+        <v>282</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phuriwat</t>
+          <t>Dhia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Angkoondittaphong</t>
+          <t>Naouali</t>
         </is>
       </c>
       <c r="D6">
@@ -36466,19 +36031,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
+      <c r="A7" t="n">
+        <v>277</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parichay</t>
+          <t>Akash</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>Agrawal</t>
         </is>
       </c>
       <c r="D7">
@@ -36523,19 +36086,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
+      <c r="A8" t="n">
+        <v>274</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Kir</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Moya-Sánchez</t>
+          <t>Zharov</t>
         </is>
       </c>
       <c r="D8">
@@ -36580,19 +36141,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
+      <c r="A9" t="n">
+        <v>271</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ojodunwene</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D9">
@@ -36637,19 +36196,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
+      <c r="A10" t="n">
+        <v>265</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>BYAOMBE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sosoo</t>
+          <t>Dieudonne</t>
         </is>
       </c>
       <c r="D10">
@@ -36694,19 +36251,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
+      <c r="A11" t="n">
+        <v>259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dowling</t>
+          <t>Sosoo</t>
         </is>
       </c>
       <c r="D11">
@@ -36751,19 +36306,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
+      <c r="A12" t="n">
+        <v>254</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zaynul</t>
+          <t>Braulio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Miah</t>
+          <t>Otavalo</t>
         </is>
       </c>
       <c r="D12">
@@ -36808,19 +36361,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
+      <c r="A13" t="n">
+        <v>249</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ankita</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Guha</t>
+          <t>vonThenen</t>
         </is>
       </c>
       <c r="D13">
@@ -36865,19 +36416,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
+      <c r="A14" t="n">
+        <v>245</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nura</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sufiyanu</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="D14">
@@ -36922,19 +36471,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
+      <c r="A15" t="n">
+        <v>243</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ismail</t>
+          <t>Nura</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Feranmi</t>
+          <t>Sufiyanu</t>
         </is>
       </c>
       <c r="D15">
@@ -36979,19 +36526,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
+      <c r="A16" t="n">
+        <v>235</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ediomo</t>
+          <t>Ismail</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Udoekere</t>
+          <t>Feranmi</t>
         </is>
       </c>
       <c r="D16">
@@ -37036,10 +36581,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
+      <c r="A17" t="n">
+        <v>231</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -37093,19 +36636,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
+      <c r="A18" t="n">
+        <v>230</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ying-Jung</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chen</t>
+          <t>Winner</t>
         </is>
       </c>
       <c r="D18">
@@ -37150,19 +36691,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
+      <c r="A19" t="n">
+        <v>227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pacifique</t>
+          <t>Ahsan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mugisho</t>
+          <t>Umar</t>
         </is>
       </c>
       <c r="D19">
@@ -37207,19 +36746,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
+      <c r="A20" t="n">
+        <v>223</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hrudu</t>
+          <t>Alireza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Shibu</t>
+          <t>Hosseini</t>
         </is>
       </c>
       <c r="D20">
@@ -37264,19 +36801,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
+      <c r="A21" t="n">
+        <v>220</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varala</t>
+          <t>Hrudu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Swapnik</t>
+          <t>Shibu</t>
         </is>
       </c>
       <c r="D21">
@@ -37321,10 +36856,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
+      <c r="A22" t="n">
+        <v>212</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -37378,19 +36911,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
+      <c r="A23" t="n">
+        <v>209</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Koki</t>
+          <t>Kelvin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mitsunami</t>
+          <t>Rotich</t>
         </is>
       </c>
       <c r="D23">
@@ -37435,19 +36966,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
+      <c r="A24" t="n">
+        <v>208</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Ed</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Amanfo</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D24">
@@ -37492,19 +37021,17 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="A25" t="n">
+        <v>205</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sumantro</t>
+          <t>Koki</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mukherjee</t>
+          <t>Mitsunami</t>
         </is>
       </c>
       <c r="D25">
@@ -37549,19 +37076,17 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
+      <c r="A26" t="n">
+        <v>191</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>Uzair</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kapoor</t>
+          <t>Shaikh</t>
         </is>
       </c>
       <c r="D26">
@@ -37606,19 +37131,17 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
+      <c r="A27" t="n">
+        <v>180</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bingqing</t>
+          <t>Zhiqing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Guo</t>
+          <t>Xiao</t>
         </is>
       </c>
       <c r="D27">
@@ -37663,19 +37186,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
+      <c r="A28" t="n">
+        <v>178</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gaurav</t>
+          <t>Efe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sarkar</t>
+          <t>Güler</t>
         </is>
       </c>
       <c r="D28">
@@ -37720,17 +37241,19 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
+      <c r="A29" t="n">
+        <v>176</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>尹珉</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Trần</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cường</t>
+        </is>
+      </c>
       <c r="D29">
         <f>SUMPRODUCT(--('Review Sheet'!I731:I732="Yes"))</f>
         <v/>
@@ -37773,19 +37296,17 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
+      <c r="A30" t="n">
+        <v>175</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mitzuko</t>
+          <t>Osman</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Callañaupa</t>
+          <t>Sesay</t>
         </is>
       </c>
       <c r="D30">
@@ -37830,19 +37351,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
+      <c r="A31" t="n">
+        <v>170</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Sanjoy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RAHMAN</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D31">
@@ -37887,19 +37406,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
+      <c r="A32" t="n">
+        <v>167</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sanjoy</t>
+          <t>Yoshitomo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Matsubara</t>
         </is>
       </c>
       <c r="D32">
@@ -37944,19 +37461,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
+      <c r="A33" t="n">
+        <v>163</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yoshitomo</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Matsubara</t>
+          <t>Nazif</t>
         </is>
       </c>
       <c r="D33">
@@ -38001,19 +37516,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
+      <c r="A34" t="n">
+        <v>161</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mirza</t>
+          <t>Jiho</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Abbas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D34">
@@ -38058,19 +37571,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A35" t="n">
+        <v>156</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ephraim</t>
+          <t>Ugama</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mwereza</t>
+          <t>Kelechi</t>
         </is>
       </c>
       <c r="D35">
@@ -38115,19 +37626,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
+      <c r="A36" t="n">
+        <v>153</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ugama</t>
+          <t>Eikan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kelechi</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="D36">
@@ -38172,19 +37681,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+      <c r="A37" t="n">
+        <v>150</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Eikan</t>
+          <t>Masahiro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Hiramori</t>
         </is>
       </c>
       <c r="D37">
@@ -38229,19 +37736,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
+      <c r="A38" t="n">
+        <v>146</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Sarthak</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Persson</t>
+          <t>Purohit</t>
         </is>
       </c>
       <c r="D38">
@@ -38286,19 +37791,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
+      <c r="A39" t="n">
+        <v>143</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mukharbek</t>
+          <t>Hossain</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Organokov</t>
+          <t>Kabir</t>
         </is>
       </c>
       <c r="D39">
@@ -38343,19 +37846,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
+      <c r="A40" t="n">
+        <v>139</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Haq</t>
+          <t>Mukharbek</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Malik</t>
+          <t>Organokov</t>
         </is>
       </c>
       <c r="D40">
@@ -38400,19 +37901,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
+      <c r="A41" t="n">
+        <v>130</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>Ciro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Toqeer</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="D41">
@@ -38457,19 +37956,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="A42" t="n">
+        <v>125</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sadhana</t>
+          <t>Emre</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Panthi</t>
+          <t>Kurtoglu</t>
         </is>
       </c>
       <c r="D42">
@@ -38514,19 +38011,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
+      <c r="A43" t="n">
+        <v>122</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Shoaib</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Aslam</t>
         </is>
       </c>
       <c r="D43">
@@ -38571,19 +38066,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
+      <c r="A44" t="n">
+        <v>121</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Trisan</t>
+          <t>Ruchi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wagle</t>
+          <t>Pakhle</t>
         </is>
       </c>
       <c r="D44">
@@ -38628,10 +38121,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="A45" t="n">
+        <v>120</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -38685,19 +38176,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
+      <c r="A46" t="n">
+        <v>115</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Arun</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bhandari</t>
+          <t>Hamid</t>
         </is>
       </c>
       <c r="D46">
@@ -38742,19 +38231,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
+      <c r="A47" t="n">
+        <v>113</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sandin</t>
+          <t>Saroj</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Maheeshakya</t>
+          <t>Dahal</t>
         </is>
       </c>
       <c r="D47">
@@ -38799,19 +38286,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
+      <c r="A48" t="n">
+        <v>109</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Saroj</t>
+          <t>Vash</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dahal</t>
+          <t>Puno</t>
         </is>
       </c>
       <c r="D48">
@@ -38856,19 +38341,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+      <c r="A49" t="n">
+        <v>106</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jayed</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mansur</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D49">
@@ -38913,19 +38396,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
+      <c r="A50" t="n">
+        <v>102</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Akaash</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tripathi</t>
+          <t>Shaukat</t>
         </is>
       </c>
       <c r="D50">
@@ -38970,19 +38451,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A51" t="n">
+        <v>98</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Herumb</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shaukat</t>
+          <t>Shandilya</t>
         </is>
       </c>
       <c r="D51">
@@ -39027,19 +38506,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="A52" t="n">
+        <v>94</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Prajwal</t>
+          <t>NOMTHANDAZO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shrestha</t>
+          <t>TSHUMA</t>
         </is>
       </c>
       <c r="D52">
@@ -39084,19 +38561,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="A53" t="n">
+        <v>92</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sandhya</t>
+          <t>Pratik</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Karki</t>
+          <t>Korat</t>
         </is>
       </c>
       <c r="D53">
@@ -39141,19 +38616,17 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A54" t="n">
+        <v>88</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Junseo</t>
+          <t>Umair</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ko</t>
+          <t>Inayat</t>
         </is>
       </c>
       <c r="D54">
@@ -39198,19 +38671,17 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="A55" t="n">
+        <v>86</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lazhar</t>
+          <t>Iflal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bouacha</t>
+          <t>Ismalebbe</t>
         </is>
       </c>
       <c r="D55">
@@ -39255,19 +38726,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A56" t="n">
+        <v>79</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Manas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Anis</t>
+          <t>Thakur</t>
         </is>
       </c>
       <c r="D56">
@@ -39312,19 +38781,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A57" t="n">
+        <v>77</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>Satyam</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MEDRANO</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D57">
@@ -39369,10 +38836,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A58" t="n">
+        <v>75</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -39426,19 +38891,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A59" t="n">
+        <v>61</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marimuthu</t>
+          <t>Debashish</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kalimuthu</t>
+          <t>Chakraborty</t>
         </is>
       </c>
       <c r="D59">
@@ -39483,19 +38946,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="A60" t="n">
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Windsor</t>
+          <t>Prakash</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Baburaj</t>
         </is>
       </c>
       <c r="D60">
@@ -39540,19 +39001,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A61" t="n">
+        <v>54</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Saikumarreddy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SERÇE</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D61">
@@ -39597,19 +39056,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="A62" t="n">
+        <v>52</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>subburaj</t>
+          <t>Aditya</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sankarappan</t>
+          <t>Thakuri</t>
         </is>
       </c>
       <c r="D62">
@@ -39654,19 +39111,17 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="A63" t="n">
+        <v>47</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Pradheep</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Melvin</t>
+          <t>Raghavan</t>
         </is>
       </c>
       <c r="D63">
@@ -39711,19 +39166,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A64" t="n">
+        <v>45</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Saikumarreddy</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>KANGONI</t>
         </is>
       </c>
       <c r="D64">
@@ -39768,19 +39221,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A65" t="n">
+        <v>44</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Rawanna</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vega</t>
+          <t>Chathuranga</t>
         </is>
       </c>
       <c r="D65">
@@ -39825,19 +39276,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A66" t="n">
+        <v>39</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Goheen</t>
+          <t>Shad</t>
         </is>
       </c>
       <c r="D66">
@@ -39882,19 +39331,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A67" t="n">
+        <v>38</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Krishna</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kalyan</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="D67">
@@ -39939,19 +39386,17 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="A68" t="n">
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ameer</t>
+          <t>Ojas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hadi</t>
+          <t>Patil</t>
         </is>
       </c>
       <c r="D68">
@@ -39992,120 +39437,6 @@
       </c>
       <c r="M68">
         <f>SUM(D68,E68,F68,G68,H68,I68,J68,K68,L68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>shashanka</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>br</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1811:I1812="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1813:I1815="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1816:I1817="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1818:I1824="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1825:I1828="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1829:I1830="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1831:I1832="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1833:I1836="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1837:I1837="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>SUM(D69,E69,F69,G69,H69,I69,J69,K69,L69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Badar</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Butt</t>
-        </is>
-      </c>
-      <c r="D70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1838:I1839="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1840:I1842="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1843:I1844="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1845:I1851="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1852:I1855="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1856:I1857="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1858:I1859="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1860:I1863="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L70">
-        <f>SUMPRODUCT(--('Review Sheet'!I1864:I1864="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M70">
-        <f>SUM(D70,E70,F70,G70,H70,I70,J70,K70,L70)</f>
         <v/>
       </c>
     </row>
